--- a/PLSstatic_predicted_variables_matrix_10.xlsx
+++ b/PLSstatic_predicted_variables_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:AV67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,135 @@
       <c r="E1" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -466,6 +595,135 @@
       <c r="E2" t="n">
         <v>-0.2748860319257635</v>
       </c>
+      <c r="F2" t="n">
+        <v>-0.2699868845344401</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-0.265346640796246</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-0.2610466514479939</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.256997341121328</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-0.2533931015086169</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-0.250245130112134</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-0.2476458632131238</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-0.2454728765748985</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-0.2437103969688292</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-0.2423379339635565</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-0.2413314284835865</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-0.2406641543788437</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-0.2403079442233686</v>
+      </c>
+      <c r="S2" t="n">
+        <v>-0.2402333605198533</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-0.2404107028899814</v>
+      </c>
+      <c r="U2" t="n">
+        <v>-0.2408104510776265</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-0.2414037176450971</v>
+      </c>
+      <c r="W2" t="n">
+        <v>-0.2421626205254659</v>
+      </c>
+      <c r="X2" t="n">
+        <v>-0.2430605815861037</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-0.2440725597100587</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>-0.2451752089844547</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-0.2463470182907644</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>-0.24756835481347</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>-0.2488215018851548</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>-0.2500906495466149</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>-0.2513618560094917</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>-0.2526229853431837</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>-0.2538636262005677</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>-0.2550680135540476</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>-0.2562305079059367</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-0.2573586913104112</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>-0.2584405472501518</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-0.2594724793477196</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-0.2604521192176625</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>-0.2613780441113863</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>-0.2622495880174492</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>-0.263066933650107</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>-0.2638557092360174</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>-0.2645668363397468</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>-0.265227357955277</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>-0.265839303076211</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>-0.2664049091925764</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>-0.2669572117088126</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -483,6 +741,135 @@
       <c r="E3" t="n">
         <v>0.2111823481930067</v>
       </c>
+      <c r="F3" t="n">
+        <v>0.2207826376601392</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.2285063340558599</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.2345870242328583</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.2392983293748329</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.2427880355077167</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.245267330255139</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.2469091385837908</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.24788104317561</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.2483113699693039</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.248309814347042</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.2479696815569076</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.2473700304778031</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.2465772870831639</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.2456472988791007</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.2446266070761727</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.2435537866414395</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.2424605573058073</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.2413727410198589</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.240311087467721</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.2392919591710276</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.2383280292653549</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.2374287473921243</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.236600832560531</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.2358486768522316</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.2351747086939152</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.2345797125524491</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.2340631105876371</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.2336232109387665</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.2332678205537538</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.2329841083731446</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.2327561470137644</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.2325910781183428</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.2324847284190856</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.2324323259261622</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.232429049811536</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.2324701116545652</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.2325508931995791</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.2326551769006702</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.2328041484558933</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0.2329795109138169</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0.2331774933971721</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.2333947273399093</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0.2336162647839158</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -500,6 +887,135 @@
       <c r="E4" t="n">
         <v>0.1850441652194002</v>
       </c>
+      <c r="F4" t="n">
+        <v>0.1942308170156444</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.2013702188684627</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.2068954481183879</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.2112129866949564</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.2145184935036391</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.2170374868977941</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.2188906251836944</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.2202661151897652</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.2212661475035256</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.2219701062091956</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.2224398830991807</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.2227238669335387</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.2228599452636329</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.2228779380162684</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.2228015572882248</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.2226498061352239</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.2224380847444448</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.2221790293300435</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.2218831440525847</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.2215591746707581</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.2212147938794194</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.2208564740699943</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.2204898390490255</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.220119794885654</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.2197506320990585</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.21938610216752</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.219029475302584</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.2186835852600547</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.21838480498132</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.2180985058244858</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.2177934618790528</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.2175067076787436</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.2172405194989833</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.2169954966216312</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.2167719737559489</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.2165700467296951</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.2163898070997907</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0.2162025761909794</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0.2160670310993139</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0.215952242724398</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0.2158573936452479</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0.2157820027736819</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0.2156955616081731</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -517,6 +1033,135 @@
       <c r="E5" t="n">
         <v>-0.06599016197342299</v>
       </c>
+      <c r="F5" t="n">
+        <v>-0.06174164716327142</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-0.05863201557501946</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-0.05646986235158939</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-0.05511601336860028</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-0.05440574248086452</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-0.05422021942665012</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-0.05444562389727403</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-0.05502211019475234</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.0558771997734354</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-0.05694912378074164</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-0.05818533880769934</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-0.05954123863343105</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-0.06097903314648102</v>
+      </c>
+      <c r="S5" t="n">
+        <v>-0.06246701497545269</v>
+      </c>
+      <c r="T5" t="n">
+        <v>-0.06397851769350067</v>
+      </c>
+      <c r="U5" t="n">
+        <v>-0.06549133083266061</v>
+      </c>
+      <c r="V5" t="n">
+        <v>-0.06698711530966991</v>
+      </c>
+      <c r="W5" t="n">
+        <v>-0.06845090007960006</v>
+      </c>
+      <c r="X5" t="n">
+        <v>-0.06987064660040584</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>-0.07123698286009428</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>-0.07254250070291283</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>-0.07378186526424593</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>-0.07495142014818723</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>-0.07604894595495276</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>-0.07707345427158496</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>-0.07802500261821074</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>-0.07890452797254199</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>-0.07971369698822099</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>-0.08042378402728056</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>-0.08106820210237928</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>-0.08168359101369221</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>-0.08223959118950726</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>-0.08273996217446783</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>-0.08318849802505988</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>-0.08358900949704778</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>-0.08394529090655289</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>-0.0842610301041503</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>-0.08457492666338084</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>-0.08481706459122215</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>-0.08502976723122564</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>-0.08521594400469279</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>-0.0853783750140113</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>-0.08555625498811439</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -534,6 +1179,135 @@
       <c r="E6" t="n">
         <v>0.1908113340838568</v>
       </c>
+      <c r="F6" t="n">
+        <v>0.1995964058256383</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.2064950361405984</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.2116846141577184</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.2152114976370227</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.2174381417405399</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.2185855109179917</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.2190152567520747</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.2187089331225611</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.217813236412796</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.2164571227142703</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.2147529043206695</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.2127974743231878</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.2106737409574106</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.2084518398273794</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.2061905599647486</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.2039385822645546</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.2017356360002289</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.1996135613802851</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.1975972797121748</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.1957056617101546</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.1939523350544464</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.1923464517497608</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.1908932973216006</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.1895948767312277</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.188450445681851</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.1874569866977502</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.1866096342710719</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.1859020532346052</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.1853640107776743</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.1849472873642957</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.1846012617978059</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.184362869012718</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.1842229704357334</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.1841717185941454</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.1841994500470494</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.1842968829599416</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.1844550604637983</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.1846245511264417</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.1848872767056274</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0.1851857199549814</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.1855131367539882</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0.1858636053318919</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0.1861946148869718</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -551,6 +1325,135 @@
       <c r="E7" t="n">
         <v>-0.4220241622335686</v>
       </c>
+      <c r="F7" t="n">
+        <v>-0.4170569190099709</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-0.4126167635316148</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-0.4087959545424769</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-0.4054936794900288</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-0.4028286541791335</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-0.400743777404572</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-0.3992443965379804</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-0.398197457962903</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.3975521403549306</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-0.3972610452838978</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-0.3972806861070806</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>-0.3975714506233036</v>
+      </c>
+      <c r="R7" t="n">
+        <v>-0.3980973649107574</v>
+      </c>
+      <c r="S7" t="n">
+        <v>-0.3988255035712986</v>
+      </c>
+      <c r="T7" t="n">
+        <v>-0.3997260095436036</v>
+      </c>
+      <c r="U7" t="n">
+        <v>-0.4007716586231366</v>
+      </c>
+      <c r="V7" t="n">
+        <v>-0.4019376234749346</v>
+      </c>
+      <c r="W7" t="n">
+        <v>-0.4032012808283171</v>
+      </c>
+      <c r="X7" t="n">
+        <v>-0.4045420553766627</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>-0.40594111587141</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>-0.4073818728594109</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>-0.4088491781889474</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>-0.4103295205422398</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>-0.4118109517198522</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>-0.41328300187986</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>-0.4147365961362023</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>-0.416163970679703</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>-0.4175585876901182</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>-0.4188758773980809</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>-0.4201499436318735</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>-0.4214200224626393</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>-0.4226411204137845</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>-0.4238118620550598</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>-0.4249313159257789</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>-0.4259991629714456</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>-0.4270156219610679</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>-0.4279813803377985</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>-0.4289452771309376</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>-0.4298104606928801</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>-0.4306295261675211</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>-0.4314042244221428</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>-0.432136533220537</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>-0.4328792931819074</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -568,6 +1471,135 @@
       <c r="E8" t="n">
         <v>-0.1875916640155385</v>
       </c>
+      <c r="F8" t="n">
+        <v>-0.179265128548918</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-0.1726160668410139</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-0.1672885124353001</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-0.162992489379603</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-0.1594782782358214</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-0.1565586603239303</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-0.1541087310285329</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-0.1520387223938705</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.1502792638848545</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-0.1487813096127507</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-0.1475101656500393</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>-0.1464411119263466</v>
+      </c>
+      <c r="R8" t="n">
+        <v>-0.1455559613679243</v>
+      </c>
+      <c r="S8" t="n">
+        <v>-0.1448406202961592</v>
+      </c>
+      <c r="T8" t="n">
+        <v>-0.1442835755755256</v>
+      </c>
+      <c r="U8" t="n">
+        <v>-0.1438746144661759</v>
+      </c>
+      <c r="V8" t="n">
+        <v>-0.1436040754987216</v>
+      </c>
+      <c r="W8" t="n">
+        <v>-0.1434623983954306</v>
+      </c>
+      <c r="X8" t="n">
+        <v>-0.1434398872763873</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>-0.1435264498967805</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>-0.1437122011525243</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>-0.1439868351389451</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>-0.1443399994440233</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>-0.1447614304052346</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>-0.145241069306796</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>-0.1457691731853891</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>-0.1463364144986443</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>-0.146933966057905</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>-0.1475121853239443</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>-0.1481139839202213</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>-0.1487675296807243</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>-0.149419773234313</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>-0.1500648511796174</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>-0.1506984708904798</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>-0.1513168989883049</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>-0.1519168898267314</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>-0.1524957433694161</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>-0.153079933795871</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>-0.1536082969158646</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>-0.1541102797466063</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>-0.1545852952042278</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>-0.1550327742932502</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>-0.1554804300086286</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -585,6 +1617,135 @@
       <c r="E9" t="n">
         <v>-0.3904854794148054</v>
       </c>
+      <c r="F9" t="n">
+        <v>-0.3764533983405821</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-0.3645212162640715</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-0.3544743381352849</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-0.3459115305202005</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-0.3389275483115985</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-0.3333274579010695</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-0.3290385924539135</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-0.3257608747541229</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.3233636044834596</v>
+      </c>
+      <c r="O9" t="n">
+        <v>-0.321728605753823</v>
+      </c>
+      <c r="P9" t="n">
+        <v>-0.3207492674689564</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>-0.3203295294844795</v>
+      </c>
+      <c r="R9" t="n">
+        <v>-0.3203838178432067</v>
+      </c>
+      <c r="S9" t="n">
+        <v>-0.3208353756207762</v>
+      </c>
+      <c r="T9" t="n">
+        <v>-0.3216158631601571</v>
+      </c>
+      <c r="U9" t="n">
+        <v>-0.3226645974164895</v>
+      </c>
+      <c r="V9" t="n">
+        <v>-0.3239278737972868</v>
+      </c>
+      <c r="W9" t="n">
+        <v>-0.3253583436579619</v>
+      </c>
+      <c r="X9" t="n">
+        <v>-0.3269144448310639</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>-0.3285600887396405</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>-0.3302634794074487</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>-0.3319974983035315</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>-0.333738956129914</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>-0.3354682377752629</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>-0.3371689596045932</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>-0.3388276494862841</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>-0.3404334481981139</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>-0.3419778306085195</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>-0.3434395752414534</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>-0.344822776561915</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>-0.3461485963005773</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>-0.3473984790706896</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>-0.3485708597293041</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>-0.3496663091858888</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>-0.3506863304346188</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>-0.3516331791118517</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>-0.3525095799090449</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>-0.3533537849498317</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>-0.3540957267771105</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>-0.354778342327978</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>-0.3554056981416807</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>-0.3559816321836855</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>-0.3565507261191759</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -602,6 +1763,135 @@
       <c r="E10" t="n">
         <v>0.3817342650956149</v>
       </c>
+      <c r="F10" t="n">
+        <v>0.3877192698814045</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.3926126420549261</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.3965191406602677</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.3995345941159069</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.4018100452128179</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.4034664972124053</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.404633519941657</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.4053663405105356</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.4057423175632041</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.4058280368770919</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.4056806564185951</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.4053490187907907</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.4048754304872613</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.4042957676650414</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.4036408060379091</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.402936819630403</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.4022061508396476</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.40146768796865</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.4007372694174335</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.4000281166014246</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.3993508146217241</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.3987140016546468</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.3981243998476977</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.3975870471477551</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.3971054995386247</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.3966820162274904</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.3963177300611174</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.3960128046894751</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0.3957743137664499</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0.3955931585776645</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0.3954595785276342</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0.3953795747775196</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0.395350291369769</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0.3953685469666733</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0.3954310120229466</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0.3955342937360519</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0.3956749481068922</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0.3958420497504563</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0.3960480311588303</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0.3962811505522744</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0.3965383406210388</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0.3968167137072965</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>0.3971060510689612</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -619,6 +1909,135 @@
       <c r="E11" t="n">
         <v>-0.2186141652054726</v>
       </c>
+      <c r="F11" t="n">
+        <v>-0.2131919742066871</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-0.2092264362710847</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-0.2064573291270222</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-0.2045814416907295</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-0.2034598787840657</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-0.2029062076753476</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-0.2028298842850594</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-0.2030668855402377</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-0.2035302923209794</v>
+      </c>
+      <c r="O11" t="n">
+        <v>-0.204153806714356</v>
+      </c>
+      <c r="P11" t="n">
+        <v>-0.2048875412242707</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>-0.20569463100464</v>
+      </c>
+      <c r="R11" t="n">
+        <v>-0.2065480121494715</v>
+      </c>
+      <c r="S11" t="n">
+        <v>-0.2074284036317796</v>
+      </c>
+      <c r="T11" t="n">
+        <v>-0.2083222239320587</v>
+      </c>
+      <c r="U11" t="n">
+        <v>-0.2092200922958858</v>
+      </c>
+      <c r="V11" t="n">
+        <v>-0.2101156606770231</v>
+      </c>
+      <c r="W11" t="n">
+        <v>-0.2110047229521249</v>
+      </c>
+      <c r="X11" t="n">
+        <v>-0.2118845464423594</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>-0.2127532998527079</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>-0.213609969548737</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>-0.214453788824962</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>-0.2152841956410969</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>-0.2161007249736734</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>-0.2169029380663564</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>-0.2176903832715913</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>-0.2184625791582865</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>-0.2192190124808563</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>-0.2199069422991973</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>-0.220581155887858</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>-0.2212916705913121</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>-0.2219844316813195</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>-0.2226580758172592</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>-0.2233122732559047</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>-0.2239467848586014</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>-0.2245615088069699</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>-0.2251561757075752</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>-0.2257744400318945</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>-0.2263269285422755</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>-0.2268593420370654</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>-0.2273719995881172</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>-0.2278649845124013</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>-0.228383155890568</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -636,6 +2055,135 @@
       <c r="E12" t="n">
         <v>-0.08136676647222649</v>
       </c>
+      <c r="F12" t="n">
+        <v>-0.07359205713616083</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-0.06796887812889137</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-0.06422604742930955</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-0.06217472173682901</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-0.06143473463186849</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-0.06175169941590608</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-0.06284407802021713</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-0.06461783045405384</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.06691322979305922</v>
+      </c>
+      <c r="O12" t="n">
+        <v>-0.06959479552155429</v>
+      </c>
+      <c r="P12" t="n">
+        <v>-0.0725484780785535</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>-0.07567906758729331</v>
+      </c>
+      <c r="R12" t="n">
+        <v>-0.07890712045218681</v>
+      </c>
+      <c r="S12" t="n">
+        <v>-0.08216752058951489</v>
+      </c>
+      <c r="T12" t="n">
+        <v>-0.08540704521324542</v>
+      </c>
+      <c r="U12" t="n">
+        <v>-0.08858276393070363</v>
+      </c>
+      <c r="V12" t="n">
+        <v>-0.09166058545250208</v>
+      </c>
+      <c r="W12" t="n">
+        <v>-0.09461400535583736</v>
+      </c>
+      <c r="X12" t="n">
+        <v>-0.09742302464566374</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>-0.1000731522952903</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>-0.1025548248959357</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>-0.1048623590757445</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>-0.1069935036378808</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>-0.1089488696631783</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>-0.1107314362655901</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>-0.1123461139562045</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>-0.1137993586500218</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>-0.1150988307625619</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>-0.1162188631892125</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>-0.117203085293739</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>-0.118095339273386</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>-0.1188705133851722</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>-0.119538648871467</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>-0.120109730292326</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>-0.1205934720888183</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>-0.120999242309097</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>-0.1213359175226529</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>-0.1216412474195107</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>-0.1218620114264208</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>-0.1220380252589791</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>-0.122175845084803</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>-0.1222814470091299</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>-0.1223886667098524</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -653,6 +2201,135 @@
       <c r="E13" t="n">
         <v>-0.02593645912200128</v>
       </c>
+      <c r="F13" t="n">
+        <v>-0.02553447717855681</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-0.0260601138442982</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-0.02725796295756679</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-0.02892954020197416</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-0.03094160479279211</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-0.03317708571770867</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-0.03557110875366488</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-0.03802114402008098</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.04047080391780652</v>
+      </c>
+      <c r="O13" t="n">
+        <v>-0.04287542596723209</v>
+      </c>
+      <c r="P13" t="n">
+        <v>-0.04520039028898544</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>-0.04741958219070989</v>
+      </c>
+      <c r="R13" t="n">
+        <v>-0.04951425714892645</v>
+      </c>
+      <c r="S13" t="n">
+        <v>-0.05147184251239137</v>
+      </c>
+      <c r="T13" t="n">
+        <v>-0.05328482619854082</v>
+      </c>
+      <c r="U13" t="n">
+        <v>-0.05494993439807869</v>
+      </c>
+      <c r="V13" t="n">
+        <v>-0.05646733279525278</v>
+      </c>
+      <c r="W13" t="n">
+        <v>-0.05783992545302538</v>
+      </c>
+      <c r="X13" t="n">
+        <v>-0.05907274502853149</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>-0.06017256693379613</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>-0.06114697747272559</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>-0.06200456342812663</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>-0.06275437516511813</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>-0.06340565823776546</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>-0.06396764541965644</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>-0.06444939029308078</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>-0.06485963687897132</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>-0.06520672038362053</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>-0.0654374843267007</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>-0.0656253379022141</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>-0.0658355413045251</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>-0.06600960709409648</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>-0.06615370776143162</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>-0.06627295607210076</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>-0.06637186958427137</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>-0.06645450301744768</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>-0.066524230026484</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>-0.0666354032150189</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>-0.0666835118417769</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>-0.06672724658080426</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>-0.0667680417944501</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>-0.0668071931759974</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>-0.06689606908653888</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -670,6 +2347,135 @@
       <c r="E14" t="n">
         <v>0.04981962604922416</v>
       </c>
+      <c r="F14" t="n">
+        <v>0.06806549854938156</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.08239519603042537</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.09308559600696917</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.1004840153978316</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.1049778839103245</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.1070418821273608</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.1071959483260935</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.1057517190285925</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.1030370653968426</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.09934217353956135</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.09492045028259921</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.08999013201568945</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.08473789891521659</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.079320306204944</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.07386748693036643</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.06848590451228995</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.06326107951378766</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.05826013951613329</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.0535341741196604</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.04912056218774126</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0.04504429929826574</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0.0413205754500308</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0.03795599631540458</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0.03495002030652187</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0.03229623704306386</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0.02998350140551204</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0.02799693452107502</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0.02631880284155164</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0.02495714390555382</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0.02386452479100919</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0.02298865860792881</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0.02233468326004311</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0.02188148214336537</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0.02160694259738558</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>0.02148954581094073</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>0.02150861587541354</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>0.02164472761138654</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0.02186060630994745</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0.0221817790012885</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>0.02256831417530065</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>0.02300578882881105</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>0.02348160949814167</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>0.02397149639789124</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -687,6 +2493,135 @@
       <c r="E15" t="n">
         <v>-0.03575727159308078</v>
       </c>
+      <c r="F15" t="n">
+        <v>-0.02423441905463926</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-0.01572576724917927</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-0.01015712386237588</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-0.007428407529741762</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-0.007122520592843684</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-0.008858310714409803</v>
+      </c>
+      <c r="L15" t="n">
+        <v>-0.01214415562696275</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-0.01677897089179112</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.02246576406484398</v>
+      </c>
+      <c r="O15" t="n">
+        <v>-0.0289362045653067</v>
+      </c>
+      <c r="P15" t="n">
+        <v>-0.03595236347332503</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>-0.04330692422819106</v>
+      </c>
+      <c r="R15" t="n">
+        <v>-0.05082129011421244</v>
+      </c>
+      <c r="S15" t="n">
+        <v>-0.05834461613089517</v>
+      </c>
+      <c r="T15" t="n">
+        <v>-0.0657515034983734</v>
+      </c>
+      <c r="U15" t="n">
+        <v>-0.0729396716046086</v>
+      </c>
+      <c r="V15" t="n">
+        <v>-0.07982766606550941</v>
+      </c>
+      <c r="W15" t="n">
+        <v>-0.08635260209551576</v>
+      </c>
+      <c r="X15" t="n">
+        <v>-0.0924679918960474</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>-0.09814136957760491</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>-0.1033534681431139</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>-0.1080951095523619</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>-0.1123661190286336</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>-0.1161738252446974</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>-0.1195316955694111</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>-0.1224581107683965</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>-0.1249752722275836</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>-0.127108234339424</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>-0.1288441679394052</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>-0.1302498858555868</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>-0.1313943698990281</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>-0.1322684990267101</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>-0.1329007037243124</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>-0.1333189363453342</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>-0.1335501109650824</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>-0.1336198286662432</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>-0.1335521961193097</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>-0.1333957292466335</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>-0.1331153640446252</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>-0.132760622594067</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>-0.1323486381581517</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>-0.1318946560065015</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>-0.1314306739024731</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -704,6 +2639,135 @@
       <c r="E16" t="n">
         <v>0.3469321556811226</v>
       </c>
+      <c r="F16" t="n">
+        <v>0.3657770948906962</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.3806683231287021</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.3918780826977845</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.3995826774153569</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.4042562132673798</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.406303360852054</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.4062599909509909</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.4043558933507359</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.4009228982275476</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.3962677031855184</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.3906693357450139</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.3843783072456387</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.3776153626499707</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.3705737249731716</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.3634195155405788</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.3562935257969361</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.3493130651293334</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.3425739298996771</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.3361524179672517</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0.3301071277397156</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.3244816163858658</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0.3193054421305708</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0.314596304801404</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0.3103616861854123</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0.3066003952225386</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0.3033039913306713</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0.3004580842303845</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0.2980435113335497</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0.2960063383252554</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0.2943667217521033</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0.2931183787133431</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0.2921929991225991</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>0.2915622185544532</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0.2911969367498646</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0.2910683560583132</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>0.2911483790196677</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>0.2914100380870249</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0.2918464482078151</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0.2923962998917094</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>0.293054665478166</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>0.2938007812966177</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>0.2946158206196567</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>0.2955018306078374</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -721,6 +2785,135 @@
       <c r="E17" t="n">
         <v>0.5344207720778706</v>
       </c>
+      <c r="F17" t="n">
+        <v>0.5397364227622077</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.541384248000422</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.5401297729218446</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.5363723446163031</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.5309565343341682</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.5243310520356987</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.5169747078522029</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.5090420967019339</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.5007982849554952</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.4924629602695473</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.4842159160109848</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.4762024370323272</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.468536349257091</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.4613057027860545</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.4545753597619899</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.4483903061102966</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.4427784965245858</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.4377534186968829</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.4333164019819619</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.4294584667288645</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0.4261629508936204</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0.4234062756982285</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0.4211597762592976</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0.4193909921319457</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0.4180648040468904</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0.417144421455157</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0.4165922327813255</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0.4163705292475841</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0.4164634828557781</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0.4168093389728279</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>0.4173633711798598</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>0.4181079798922425</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>0.4190104178008344</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>0.4200415006886398</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>0.4211744989708086</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>0.422385068142066</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>0.4236513073155393</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0.4249677124496777</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0.4262891965764894</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>0.4276131372157172</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>0.4289273676297768</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>0.4302212172812311</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>0.4315085362610841</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -738,6 +2931,135 @@
       <c r="E18" t="n">
         <v>-0.09799428944168817</v>
       </c>
+      <c r="F18" t="n">
+        <v>-0.09853037403358497</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-0.1000867211778275</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-0.1025478087593766</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-0.1056590367428714</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-0.1094328311453638</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-0.1137138081808581</v>
+      </c>
+      <c r="L18" t="n">
+        <v>-0.1184492314828936</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-0.1233921730118558</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.1284290173903074</v>
+      </c>
+      <c r="O18" t="n">
+        <v>-0.1334597135654417</v>
+      </c>
+      <c r="P18" t="n">
+        <v>-0.1383985105302619</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>-0.1431740504845141</v>
+      </c>
+      <c r="R18" t="n">
+        <v>-0.1477284285024835</v>
+      </c>
+      <c r="S18" t="n">
+        <v>-0.1520170478989165</v>
+      </c>
+      <c r="T18" t="n">
+        <v>-0.1560069621039104</v>
+      </c>
+      <c r="U18" t="n">
+        <v>-0.1596758147485134</v>
+      </c>
+      <c r="V18" t="n">
+        <v>-0.1630105650762539</v>
+      </c>
+      <c r="W18" t="n">
+        <v>-0.1660062177029545</v>
+      </c>
+      <c r="X18" t="n">
+        <v>-0.1686645953083029</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>-0.1709932388606759</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>-0.1730041419996615</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>-0.1747129781942451</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>-0.1761381699834116</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>-0.1773000939899579</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>-0.1782204023542303</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>-0.1789214369330937</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>-0.1794257307882169</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>-0.1797555906597768</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>-0.1798809382160746</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>-0.1798757727895408</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>-0.1798107537559771</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>-0.1796529582385226</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>-0.179419571209088</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>-0.1791263358482783</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>-0.1787875690103627</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>-0.1784161475535469</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>-0.1780235277269477</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>-0.1776581593070573</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>-0.1772483704038402</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>-0.176844300683116</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>-0.1764520030419345</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>-0.1760764664620036</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>-0.1757554900388481</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -755,6 +3077,135 @@
       <c r="E19" t="n">
         <v>0.38228095917484</v>
       </c>
+      <c r="F19" t="n">
+        <v>0.3823901460358875</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.3814978002281165</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.3796064128093792</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.3766441880082543</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.3728769490340325</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.3684471157986202</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.3636163908338103</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.3583860894240208</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.3528875183877405</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.3472415492903216</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.3415562021268923</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.3359254379003495</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.3304295409831661</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.3251344969493468</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.3200934384183648</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.3153474389462543</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.310926630098044</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.3068513801040452</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.3031334806935947</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0.299777256907034</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0.2967808086930318</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0.2941369425691807</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0.2918341117838443</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0.2898573149675366</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0.2881888812385196</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0.286809169915782</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0.2856971878006144</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0.2848311277853656</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0.2842467673840703</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0.2838652454936551</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>0.2836022766895704</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>0.2834984375547382</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>0.2835329413766923</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0.2836866454142061</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>0.2839415846374212</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>0.2842810530133324</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>0.2846896211043572</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0.2850956668076528</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0.2856082725938852</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>0.2861503285789042</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>0.2867122374918407</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>0.2872854106810412</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>0.2878088579973032</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -772,6 +3223,135 @@
       <c r="E20" t="n">
         <v>0.2525839726836821</v>
       </c>
+      <c r="F20" t="n">
+        <v>0.271045452144371</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.2848871577105429</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.2945880047159347</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.3005536089653056</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.3033252643449611</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.3034215371374379</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.3013981793043263</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.297618123282575</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.2924512512507984</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.2862290323265269</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.2792445346702801</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.2717538974964678</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.2639768194121988</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.2561008464929768</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.2482826431387198</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.2406509870588829</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.2333094800686227</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.2263392149882077</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.2198013492373264</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0.2137395023195975</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0.2081822387121355</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0.2031449593673709</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0.1986320161943949</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0.1946384831208451</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0.1911517940859391</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0.1881532187294886</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0.1856191821873984</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0.1835224364479159</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0.1818526466866228</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0.1805608803225078</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>0.1795969309890867</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>0.1789428325186254</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>0.178565628261965</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>0.1784333426643622</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>0.1785151311401566</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>0.1787815144954191</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>0.1792047747272918</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0.1797547987367333</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0.1804187296764624</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>0.1811663885705825</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>0.1819781160190354</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>0.1828361863774176</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>0.1837268885835644</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -789,6 +3369,135 @@
       <c r="E21" t="n">
         <v>0.5519059949021523</v>
       </c>
+      <c r="F21" t="n">
+        <v>0.5624041710793011</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.5701453112086807</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.5754202689095866</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.578167466951983</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.5790829172137042</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.578447577388453</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.5767664495038282</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.5739862194560496</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.5703257111515022</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.5659836148707541</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.5611381515353652</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.5559474108955216</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.55055040538436</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.5450674160428989</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.5396015092537901</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.5342395859733086</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.5290536081156406</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.5241018538182862</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0.5194301766055016</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0.5150731958393576</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0.5110556520256144</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0.5073934821416097</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0.5040949058659929</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0.5011615094290732</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0.4985892354548725</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0.4963693016254924</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0.4944890470077189</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0.4929327052771618</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0.4916679075108767</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0.490692843213372</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0.4900007119687344</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>0.4895523397851592</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>0.4893238429536171</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0.489292908833127</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>0.489437741676757</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>0.4897372479320359</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>0.4901711550837529</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0.4907362925445914</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0.4913832260873567</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>0.4921093713901211</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>0.4928999234174013</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>0.4937409171788146</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>0.4946384422942905</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -806,6 +3515,135 @@
       <c r="E22" t="n">
         <v>0.3381983751243492</v>
       </c>
+      <c r="F22" t="n">
+        <v>0.3480613858108816</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.3542334989161481</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.3573101983197028</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.3575154086682694</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.3556384974715432</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.3520980875150928</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.3474623614630117</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.3418046490008074</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.3354031243254873</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.3285000447847227</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.3213043653385994</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.3139945076186058</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.3067197800282403</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.2996040407920442</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.2927476455143006</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.2862298693169</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.2801112196202805</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.2744356440673417</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0.2692326175409928</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0.2645187832012029</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0.2603008301164058</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0.2565759392016647</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0.2533338127535663</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0.250558048604032</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0.2482273879058116</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0.2463168317855773</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0.2447986319422432</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>0.2436431615775893</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0.2428409159957813</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0.2423409226054442</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>0.2420902052976546</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>0.2420782405648726</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>0.2422757541622432</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>0.2426541431372372</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>0.2431863287929876</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>0.2438469661626978</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>0.2446125322233552</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0.2454520186276596</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0.2463689637551069</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>0.24733052079531</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>0.2483210893680708</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>0.2493270580954502</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>0.2503335118856654</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -823,6 +3661,135 @@
       <c r="E23" t="n">
         <v>-0.09427785948918189</v>
       </c>
+      <c r="F23" t="n">
+        <v>-0.08634999183391538</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-0.08188115248654311</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-0.08034301201883327</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-0.08142989867163673</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-0.08443778507947568</v>
+      </c>
+      <c r="K23" t="n">
+        <v>-0.08891712019885684</v>
+      </c>
+      <c r="L23" t="n">
+        <v>-0.0943525513907322</v>
+      </c>
+      <c r="M23" t="n">
+        <v>-0.1005876920492318</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-0.1073525056656849</v>
+      </c>
+      <c r="O23" t="n">
+        <v>-0.1144198744319792</v>
+      </c>
+      <c r="P23" t="n">
+        <v>-0.1216013593386331</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>-0.1287431249177897</v>
+      </c>
+      <c r="R23" t="n">
+        <v>-0.1357210419905881</v>
+      </c>
+      <c r="S23" t="n">
+        <v>-0.1424379099214935</v>
+      </c>
+      <c r="T23" t="n">
+        <v>-0.148819338916405</v>
+      </c>
+      <c r="U23" t="n">
+        <v>-0.1548106575978778</v>
+      </c>
+      <c r="V23" t="n">
+        <v>-0.1603740431902845</v>
+      </c>
+      <c r="W23" t="n">
+        <v>-0.165485952888543</v>
+      </c>
+      <c r="X23" t="n">
+        <v>-0.1701348352085905</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>-0.1743189810903814</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>-0.1780451584981741</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>-0.1813264728696158</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>-0.184181250996991</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>-0.186631810111304</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>-0.1887034001336571</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>-0.1904232915263252</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>-0.1918199941111068</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>-0.1929225936816172</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>-0.1936945123634708</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>-0.1942388741225816</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>-0.1946397658022064</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>-0.1948571089660487</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>-0.1949167861681328</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>-0.1948430270566458</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>-0.1946583061704264</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>-0.194383344709223</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>-0.1940368842777827</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>-0.1936667694498997</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>-0.1932218587265777</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>-0.1927522204895334</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>-0.1922693244586872</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>-0.1917830726149451</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>-0.1913226687962038</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -840,6 +3807,135 @@
       <c r="E24" t="n">
         <v>2.971280394045559</v>
       </c>
+      <c r="F24" t="n">
+        <v>2.789768923576457</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2.620599056467243</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2.464671034317637</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2.317957320356507</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2.186101048178539</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2.068087863163925</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.964579347243412</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.871925847059247</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.789437668025117</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.716423012499712</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.652203072909476</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.596119372387409</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.547540291526265</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.505858780753341</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.470495562922765</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.440897971866796</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.416539556178052</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1.39691967908303</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1.381563204379976</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>1.370019962516713</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>1.361866123137911</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>1.356701965543628</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1.35415285650656</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>1.353869251678335</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>1.355526540891298</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>1.358824814756684</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>1.363488528308275</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>1.36926604711538</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>1.375854792041921</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>1.38313434761741</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>1.39108404131474</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>1.399341065068042</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>1.407765707244659</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>1.416236944524351</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>1.424651192589066</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>1.43292103767652</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>1.44097379514657</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>1.449104162272745</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>1.45648146291951</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>1.463513104147981</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>1.470172690359034</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>1.476442493572076</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>1.48270476408245</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -857,6 +3953,135 @@
       <c r="E25" t="n">
         <v>0.3738283727364909</v>
       </c>
+      <c r="F25" t="n">
+        <v>0.3626404603359742</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.3527641787415623</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.3440462220545578</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.3365368006458946</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.3299375385149323</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.3242421047133149</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.3193152606506591</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.3151940855244287</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.3118370243178804</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.3091900617297481</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.3071978804272945</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.3058047734752207</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.3049546071607661</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.3045921373411901</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.304662860433256</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.3051137002668052</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.3058935169728165</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.306953531338557</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0.3082476780887633</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0.3097325469197151</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0.311369111198289</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0.3131203002907435</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0.3149529541597099</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0.3168373530548428</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0.3187471434497338</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0.3206592497671488</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0.3225537502993179</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0.3244137227776149</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0.3261974419689928</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0.327978211617155</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>0.329710982450778</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>0.331314054318203</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>0.3328325978319501</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>0.3342669948709507</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>0.3356160904167402</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>0.336879842927238</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>0.3380592952590627</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0.3391743201281808</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0.3401723197992266</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>0.3411121375767673</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>0.3419817785831101</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>0.3427843936657878</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>0.343539714138275</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -874,6 +4099,135 @@
       <c r="E26" t="n">
         <v>0.285424072280127</v>
       </c>
+      <c r="F26" t="n">
+        <v>0.2679680608280399</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.2513098557740338</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.2354596519220792</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.2203244038499572</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.2062225216967831</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.1933059394977233</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.1817601638132242</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.1713891868516092</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.1622108878863462</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.1542051869724051</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.1473318607836601</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.1415356144060378</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.1367501218807264</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.132902058089411</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.1299130801333777</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.1277025920290482</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.1261897165770179</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.1252948463852483</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0.1249408574597629</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0.125054016255897</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0.1255651536776976</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0.1264086857263643</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0.127524510984779</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0.1288576194940216</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0.1303581263366716</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0.1319812425977192</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0.1336871693643698</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0.1354409292787351</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0.1372556011796926</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>0.1391148888753457</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>0.1408894706294765</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>0.142556119426885</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>0.1441578596521568</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>0.1456865031845059</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>0.1471332354192451</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>0.1484916647682739</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>0.149757565024624</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>0.1509054497496396</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>0.151962747868979</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>0.1529461812790665</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>0.1538394425157704</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>0.1546445681472101</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>0.1553484754858791</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -891,6 +4245,135 @@
       <c r="E27" t="n">
         <v>0.162146204302322</v>
       </c>
+      <c r="F27" t="n">
+        <v>0.1462568773580009</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.1316333938183304</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.1180261107715307</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.1052445915188457</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.09337695519064503</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.08254222973393092</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.07290366853904165</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.06426472229395579</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.05664149296615806</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.05001521722832055</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.04435170728130945</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.03960503342846921</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.0357193270575161</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.03263348818514149</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.03028146593430916</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.02859490436819989</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0.02750485367484887</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0.02694314251395774</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0.02684347622168284</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0.02714215829013946</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0.02777976559448937</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0.02869919687183277</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0.0298483163499552</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0.03117936515706834</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0.03264900309443047</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0.03421830536922668</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0.03585268728267527</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0.03752176956569575</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>0.03918186662737596</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>0.04091193807634393</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>0.04261413859570901</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>0.04418611975672489</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>0.04569256042203557</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>0.04712853848700294</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>0.04848688803851514</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>0.04976238632490258</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>0.05095166670537262</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>0.05206462963443572</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>0.05304983008905502</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>0.05397555779193898</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>0.0548192581243135</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>0.05558228699778642</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>0.05628052833571817</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -908,6 +4391,135 @@
       <c r="E28" t="n">
         <v>0.9430162933277042</v>
       </c>
+      <c r="F28" t="n">
+        <v>0.9169011937455012</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.896311188299275</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.8799776729641027</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.8670401803085648</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.8567385086604085</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.8486135803725636</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.8423049234905599</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.8374761731647918</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.8339052936495649</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.8314029623876517</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.8298123866022085</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.8290014031589953</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.8288584529824095</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.8292864897086619</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.830200639822396</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.8315259519440563</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0.8331957919255808</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0.8351506430363717</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0.8373372128963265</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0.839707874886144</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0.84222009337513</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0.844835346820948</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0.8475198347551219</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0.850243749208184</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0.8529809852945649</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0.8557088974317778</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0.8584080664281486</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>0.8610620717553694</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>0.8635501435651912</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>0.866040300017116</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>0.8685574573986325</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>0.8709322958505685</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>0.8732098503096553</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>0.8753913695860724</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>0.8774763507798815</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>0.8794652886226138</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>0.8813593625637902</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>0.8832338320830658</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>0.8849189917328241</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>0.8865368077638949</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>0.8880752826249729</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>0.8895372211283836</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>0.8909958182691017</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -925,6 +4537,135 @@
       <c r="E29" t="n">
         <v>2.933916769992328</v>
       </c>
+      <c r="F29" t="n">
+        <v>2.770921271616004</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2.621727388377083</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2.4857059337575</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2.360619718179715</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2.248232230271094</v>
+      </c>
+      <c r="K29" t="n">
+        <v>2.1476544691572</v>
+      </c>
+      <c r="L29" t="n">
+        <v>2.058491531700809</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.979142962351907</v>
+      </c>
+      <c r="N29" t="n">
+        <v>1.909071547351651</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.847742388786154</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.794621969108142</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.749176807032425</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.710872304445461</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.679175515389329</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.653556525946248</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.633491276211272</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.618464734059926</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1.607974160179477</v>
+      </c>
+      <c r="X29" t="n">
+        <v>1.601532284970633</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>1.598669978182006</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>1.598940250713986</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>1.601918271194738</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>1.60720451281707</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>1.614426008148166</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>1.623237278654149</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>1.633320866115584</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>1.644387483220477</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>1.656175814592217</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>1.668466778867378</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>1.681063912222025</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>1.693809667101768</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>1.706459280758027</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>1.718895054679377</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>1.73100986258014</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>1.742715175490613</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>1.753939995817845</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>1.764629915353091</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>1.7749499685462</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>1.78441473731357</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>1.793274335719287</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>1.801519846972936</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>1.809154301397865</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>1.816440242455455</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -942,6 +4683,135 @@
       <c r="E30" t="n">
         <v>0.8149214411072819</v>
       </c>
+      <c r="F30" t="n">
+        <v>0.7851644948282447</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.7604532625000697</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.7397386180282917</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.7224404560731031</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.7078146305123845</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.6955359165625682</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.6852340592212094</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.6767101821061497</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.6697780063354296</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.6642630449634174</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.6600106936458172</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.6568821682719727</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.6547499733834705</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.6534982568530566</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.6530190427785105</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0.6532120515482761</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0.6539841694286065</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0.6552490961268301</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0.6569271162123117</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0.6589448974593408</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0.6612360540911433</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0.6637389926469778</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0.6663988586973961</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0.6691666378262899</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0.671998908513607</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0.6748576054771153</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0.6777097559974431</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>0.6805271911358608</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>0.6832308048387061</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>0.6859452947667615</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>0.6886153983229059</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>0.6911013083900271</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>0.6934649591966324</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>0.6957056816812205</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>0.6978207977825962</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>0.6998094234543061</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>0.701672209761803</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>0.7034441362643616</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>0.7050316996675281</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>0.7065300530910735</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>0.7079219363050407</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>0.7092115501273032</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>0.710434322171439</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -959,6 +4829,135 @@
       <c r="E31" t="n">
         <v>-0.3676130800797454</v>
       </c>
+      <c r="F31" t="n">
+        <v>-0.3796127398424268</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-0.3903781591712187</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-0.4003713645421673</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-0.4095172226450455</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-0.4181776855482359</v>
+      </c>
+      <c r="K31" t="n">
+        <v>-0.4261713361624653</v>
+      </c>
+      <c r="L31" t="n">
+        <v>-0.4334646717832372</v>
+      </c>
+      <c r="M31" t="n">
+        <v>-0.4399472150050991</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0.4455766292837097</v>
+      </c>
+      <c r="O31" t="n">
+        <v>-0.4503505028832298</v>
+      </c>
+      <c r="P31" t="n">
+        <v>-0.4542878743583992</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>-0.4574257200392178</v>
+      </c>
+      <c r="R31" t="n">
+        <v>-0.4598131654854649</v>
+      </c>
+      <c r="S31" t="n">
+        <v>-0.4615095397830974</v>
+      </c>
+      <c r="T31" t="n">
+        <v>-0.4625809575857606</v>
+      </c>
+      <c r="U31" t="n">
+        <v>-0.4630971233486988</v>
+      </c>
+      <c r="V31" t="n">
+        <v>-0.4631288973218885</v>
+      </c>
+      <c r="W31" t="n">
+        <v>-0.4627463589993591</v>
+      </c>
+      <c r="X31" t="n">
+        <v>-0.4620172920298101</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>-0.4610056302223557</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>-0.4597715346558957</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>-0.4583708552291307</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>-0.4568535835807923</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>-0.4552643879569999</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>-0.4536426304771961</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>-0.4520224622970406</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>-0.4504330104293087</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>-0.4488986345732718</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>-0.4473875567667422</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>-0.445897428243698</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>-0.4445785697932431</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>-0.4434468823234089</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>-0.4424341507935051</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>-0.4415388006915012</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>-0.4407614972241692</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>-0.4401012641555054</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>-0.4395554082872803</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>-0.4391615778087542</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>-0.4388539803303941</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>-0.4386195626331666</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>-0.4384754687167051</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>-0.438416262447424</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>-0.4384716043042633</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -976,6 +4975,135 @@
       <c r="E32" t="n">
         <v>0.6886048913110657</v>
       </c>
+      <c r="F32" t="n">
+        <v>0.6671478309755039</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.648657336040821</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.632561302949898</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.6183365239426661</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.6059362085595205</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.5952282165480058</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.5862018056142164</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.5785083774555598</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.5720509539425036</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.5667262381665997</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.5624340821589754</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.5590776520975528</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.5565627154822701</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.5547998511899278</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.5537030159071684</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.5531905526678821</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0.5531855476192533</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0.5536160828184565</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0.5544154030857862</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0.5555221005821036</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0.55688016912448</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0.5584380703361648</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0.5601498794765229</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0.5619746106452697</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0.5638759958499161</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0.5658222597415499</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0.567785869866251</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>0.569743268106636</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>0.5716619607028537</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>0.5735949918970613</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>0.5754780191651132</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>0.5772411316563649</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>0.5789261840944296</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>0.5805309357704936</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>0.5820520421839481</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>0.5834877079648002</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>0.5848374581269197</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>0.5861090724444425</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>0.5872705191132059</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>0.5883697010100738</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>0.5893941246016302</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>0.5903466255782263</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>0.5912392840082056</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -993,6 +5121,135 @@
       <c r="E33" t="n">
         <v>0.8406456149459182</v>
       </c>
+      <c r="F33" t="n">
+        <v>0.8261568805245183</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.8140556556208113</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.803865583073437</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.7952914412942257</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.7880504965704905</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.7820229012517572</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.7770899044202569</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.7730979376799669</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.7699610339148643</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.767591459581367</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.765907981726168</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.764835527351336</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.7643022251267224</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.7642427708068789</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0.7645953120731525</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0.7653021593381243</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0.7663097659123264</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0.767568699677283</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0.7690336069818893</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0.7706630752419479</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0.7724202368582228</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0.7742710130729666</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>0.7761855752258864</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0.7781376669579239</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>0.7801044044539615</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>0.782066087177825</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0.7840059960437455</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>0.7859101815743708</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>0.7877343805371466</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>0.7895592882733972</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>0.791348118440118</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>0.7930171361953199</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>0.7946106470852629</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>0.7961301674583153</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>0.7975755123952826</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>0.7989473638791957</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>0.8002471809137619</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>0.8014953656981115</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>0.8026384370252245</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>0.8037352260614741</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>0.8047740939328851</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>0.8057577600822067</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>0.806705579567665</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1010,6 +5267,135 @@
       <c r="E34" t="n">
         <v>-0.7566876409054248</v>
       </c>
+      <c r="F34" t="n">
+        <v>-0.7714923958398231</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-0.7849115004639877</v>
+      </c>
+      <c r="H34" t="n">
+        <v>-0.7970612916859433</v>
+      </c>
+      <c r="I34" t="n">
+        <v>-0.8078709923232333</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-0.8175715237780191</v>
+      </c>
+      <c r="K34" t="n">
+        <v>-0.8261503380864023</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-0.8337537358316139</v>
+      </c>
+      <c r="M34" t="n">
+        <v>-0.8403594060434979</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.8460169424130826</v>
+      </c>
+      <c r="O34" t="n">
+        <v>-0.8507943720146371</v>
+      </c>
+      <c r="P34" t="n">
+        <v>-0.8547642015723618</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>-0.8580005858838484</v>
+      </c>
+      <c r="R34" t="n">
+        <v>-0.8605797725052179</v>
+      </c>
+      <c r="S34" t="n">
+        <v>-0.8625753070610029</v>
+      </c>
+      <c r="T34" t="n">
+        <v>-0.8640594260731279</v>
+      </c>
+      <c r="U34" t="n">
+        <v>-0.8651014493085643</v>
+      </c>
+      <c r="V34" t="n">
+        <v>-0.865767021043513</v>
+      </c>
+      <c r="W34" t="n">
+        <v>-0.8661175682995343</v>
+      </c>
+      <c r="X34" t="n">
+        <v>-0.8662099284390519</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>-0.8660963760657885</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>-0.8658232016784086</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>-0.8654332015464459</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>-0.864963736013412</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>-0.8644474584736134</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>-0.8639125553207294</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>-0.863382994411324</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>-0.8628788019500879</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>-0.8624163597078923</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>-0.8619765564543665</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>-0.8615443744849295</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>-0.8612261919132578</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>-0.8610424036110998</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>-0.8609416146032248</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>-0.8609211898581655</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>-0.8609802812587158</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>-0.8611170134788252</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>-0.8613284315558456</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>-0.8616473826367844</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>-0.8620150575424762</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>-0.8624250708919181</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>-0.8628894877548752</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>-0.8634040891334054</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>-0.8640037929682703</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1027,6 +5413,135 @@
       <c r="E35" t="n">
         <v>0.827712555002895</v>
       </c>
+      <c r="F35" t="n">
+        <v>0.8220687850506481</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.8176052463254976</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.814258102301999</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.8118622789019289</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.8104140355264341</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.8097763552488235</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.8098491405255089</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.8104652935838136</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.8115273577076196</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.812947181566784</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.8146463382189791</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.8165560005328927</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.8186165057808534</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.8207766714550159</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.8229932111618969</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0.8252299508569712</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0.8274570995405763</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0.829650542742335</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0.8317911725965295</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0.8338641949991276</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0.8358587853786952</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0.837767282548725</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>0.8395848229016311</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0.841308908114773</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>0.8429390144521363</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0.8444762445525688</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>0.8459230184676612</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>0.8472828009316539</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>0.8485457342928938</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>0.8497315285947546</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>0.8508590073337888</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>0.8519190401486323</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>0.8529175867381855</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>0.8538603777266467</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>0.8547530566203816</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>0.8556011394898859</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>0.8564098708126333</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>0.8571950500145699</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>0.8579380946926336</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>0.8586563061895989</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>0.8593535959673284</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>0.8600335943976194</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>0.8607088404135939</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1044,6 +5559,135 @@
       <c r="E36" t="n">
         <v>0.7797904500798429</v>
       </c>
+      <c r="F36" t="n">
+        <v>0.7727751895719096</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.7673912826935418</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.763546370583838</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.7611097716829526</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.7599398306553484</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.759844522050147</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.7606093166111694</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.762094873867155</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.7641599691817504</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.7666773010477593</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.7695339616220943</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.772631328157047</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.7758840260704812</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.7792195881266401</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0.7825771189057197</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0.7859062768326837</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0.7891662002444334</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0.7923244628017176</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0.7953560782458982</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0.7982425135932859</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0.8009710205478229</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>0.8035335746451708</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>0.8059262782768821</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>0.8081486921433658</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>0.8102032384127403</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>0.8120946665917036</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>0.813829578287133</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>0.8154160069407494</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>0.8168543981849107</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>0.8181618049432833</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>0.8193583885412912</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>0.8204464872671363</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>0.8214365214210372</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>0.8223388972669012</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>0.8231637534525416</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>0.8239208610223512</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>0.8246194455934281</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>0.8252744507041528</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>0.8258795834615962</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>0.8264509526993096</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>0.8269953072480993</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>0.8275187071650399</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>0.8280303897836065</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1061,6 +5705,135 @@
       <c r="E37" t="n">
         <v>0.7316746416851793</v>
       </c>
+      <c r="F37" t="n">
+        <v>0.7267267904281682</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.7224334171484476</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.719057762402317</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.7167771508210139</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.715555476771883</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.7153178429789822</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.7158511553926059</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.7171505283800597</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.7191043491778201</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.7216005969762674</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.7245315642952147</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.7277968011821301</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.7313044329298037</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.7349722772603219</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0.7387280537699208</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0.7425092023146331</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0.746262502848801</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0.7499435294142947</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0.7535160029271216</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0.7569509325095385</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0.7602264506518868</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0.7633263965883882</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>0.7662399144811037</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>0.7689607706972698</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>0.7714867083789596</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>0.7738188456464166</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>0.7759611194835015</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>0.777919776376059</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>0.779704117604952</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>0.7813166961288978</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>0.7827744774169804</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>0.7840882800936319</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>0.7852702066227242</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>0.7863321499160402</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>0.7872860055722276</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>0.788143438206137</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>0.7889159148353355</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>0.7896265065537342</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>0.7902579648904824</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>0.790836330110935</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>0.7913704475870212</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>0.7918685639182035</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>0.7923485157103594</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1078,6 +5851,135 @@
       <c r="E38" t="n">
         <v>0.6820791536337555</v>
       </c>
+      <c r="F38" t="n">
+        <v>0.6769613051741394</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.6720120467343348</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.6673983302924739</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.6631877345431366</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.6595353673365781</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.6564672096139936</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.6539905077630124</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.6520538995783181</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.6506337055844034</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.6496966557267358</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.6492032580962891</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.6491104873188478</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.6493736072744815</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.6499480026624277</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0.650790087951842</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0.6518581783866902</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0.6531130535580788</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0.6545183280965255</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0.6560406720800158</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0.6576499344789745</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>0.6593190925111959</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>0.6610242727246495</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>0.6627446209609246</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>0.664462157511</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>0.6661616108418092</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>0.667830233111341</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>0.6694576046556395</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>0.6710354330688035</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>0.6725870040071967</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>0.6740699163612706</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>0.6754584839096784</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>0.6767832927924153</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>0.6780432454634991</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>0.6792384879372619</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>0.6803700882295085</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>0.6814398608423303</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>0.6824502334393112</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>0.6833929741036798</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>0.6842948363721753</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>0.6851466608753871</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>0.6859522288778881</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>0.6867153415388186</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>0.6874328229093186</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1095,6 +5997,135 @@
       <c r="E39" t="n">
         <v>0.5991963714597399</v>
       </c>
+      <c r="F39" t="n">
+        <v>0.5971924527874132</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.595715018109465</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.5948109659404199</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.5944960076792863</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.5947177640428567</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.5954066897174214</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.5964470873928958</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.5978089674682538</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.5994270770590141</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.6012404627143167</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.6031937489682485</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.6052377748284802</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.607329658870476</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.6094327938439482</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0.6115165015113887</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.6135556119811783</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0.6155299913736465</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0.617424042751581</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0.6192262033366646</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0.6209284156028915</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>0.6225257995933825</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>0.6240160285588072</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>0.6253990044771354</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>0.6266764815215791</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>0.6278517235209997</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>0.6289291960137392</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>0.6299142916996255</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>0.6308130877450824</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>0.631636658750434</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>0.6323848871200251</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>0.63306262245099</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>0.6336817902111389</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>0.6342491110529669</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>0.6347711698255294</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>0.6352542926810049</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>0.635704466054174</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>0.6361273255879397</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>0.6365254495015127</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>0.6369078597959059</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>0.6372775850305461</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>0.637638483065659</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>0.6379939558889395</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>0.6383425208388949</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1112,6 +6143,135 @@
       <c r="E40" t="n">
         <v>0.7905067611142178</v>
       </c>
+      <c r="F40" t="n">
+        <v>0.7859578818715857</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.7818160175113967</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.7782857191187722</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.7753415479368662</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.7731977680594635</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.7718167087836262</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.7711780759647924</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.7711332567889155</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.7716114911729806</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.7725390162154037</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.7738427992447889</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.77545316526997</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.7773050142263663</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.7793392785008745</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0.7815030706939923</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0.783749855869502</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0.7860393377070296</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0.78833718786211</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0.7906146737112425</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0.7928481778301778</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>0.7950189080673663</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>0.7971121954045516</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>0.7991171286544195</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>0.8010260941943506</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>0.8028343406372844</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>0.8045395705324219</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>0.8061415619564378</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>0.8076418213028855</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>0.8090484183363822</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>0.8103536592834496</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>0.8115650137756794</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>0.8126936197478795</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>0.8137447406750369</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>0.8147244745909529</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>0.8156391421285434</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>0.816495065860899</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>0.8172985987848342</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>0.8180643230248276</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>0.8187795945897776</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>0.8194602340003391</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>0.8201116206556155</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>0.8207385937302887</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>0.8213545690417612</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1129,6 +6289,135 @@
       <c r="E41" t="n">
         <v>0.5539591061042249</v>
       </c>
+      <c r="F41" t="n">
+        <v>0.5556968551291047</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.5570171873971215</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.5581245374346043</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.5592234592119469</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.5603320988627696</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.5615049735481203</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.5627138375415994</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.5640312506516182</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.5654555693206429</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.5669772271601154</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.5685818583845769</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.5702523948990994</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.5719711479709728</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.5737201207424409</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0.575482305201535</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0.5772420321557787</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0.5789852653828318</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0.5806997540050373</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0.5823750822894073</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0.5840026372822805</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>0.5855755481598537</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>0.5870885920616329</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>0.5885380294178962</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>0.5899214744138424</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>0.5912377463259059</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>0.5924867204238923</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>0.5936691821225026</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>0.5947866871381052</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>0.5958523763440366</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>0.5968519197626663</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>0.5977825306767622</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>0.5986610122021078</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>0.5994908791292223</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>0.6002755906355886</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>0.6010187255464406</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>0.6017239244210824</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>0.6023947964557479</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>0.6030342983495638</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>0.6036476198001622</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>0.6042368360342383</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>0.6048049942049956</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>0.6053550193337032</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>0.6058905785604792</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1146,6 +6435,135 @@
       <c r="E42" t="n">
         <v>0.6707102810341476</v>
       </c>
+      <c r="F42" t="n">
+        <v>0.6600685835407547</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.650642001799188</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.6425482912214324</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.6357748434138686</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.6304163323957804</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.6263800187969543</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.6235299268844218</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.6217236540984732</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.6208454630224666</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.6207774249740943</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.6214036417202258</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.6226131409784805</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.6243022459431345</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0.6263752610606775</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0.6287454379861406</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0.631335136776752</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0.6340757518940818</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0.6369074262261051</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0.6397786200681517</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0.642645637971871</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>0.6454718647205785</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>0.6482273779434159</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>0.6508882189551622</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>0.6534357943156208</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>0.6558562822135113</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>0.6581400634263287</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>0.6602811825482515</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>0.6622768429981204</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>0.6641602147240884</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>0.6658899797128573</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>0.6674464602788678</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>0.66887124486057</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>0.6701701287468645</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>0.6713504062257174</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>0.6724201230936935</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>0.6733878064607245</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>0.6742622241758878</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>0.6750394722408333</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>0.6757534960446425</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>0.6764005204431601</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>0.6769889839451294</v>
+      </c>
+      <c r="AU42" t="n">
+        <v>0.6775267705860943</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>0.6780110984686563</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1163,6 +6581,135 @@
       <c r="E43" t="n">
         <v>0.6942612833323832</v>
       </c>
+      <c r="F43" t="n">
+        <v>0.6905005698418001</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.6867991607206142</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.68339969682141</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.6804311981662208</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.678024719085355</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.6761971531469887</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.6749086041489849</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.6741350190549457</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.6738389817161915</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.6739748239052032</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.674492670778812</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.6753414461747629</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.6764704674685201</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.6778314237090899</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0.6793789541272259</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0.6810712799082279</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0.682870515524905</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0.6847427921898934</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0.686658245239141</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0.6885908557404369</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>0.6905184503185008</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>0.692422253494376</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>0.6942867426004347</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>0.6960993722111191</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>0.6978502989910941</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>0.6995321071338276</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>0.7011395396069475</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>0.702669239016331</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>0.7041408121350965</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>0.7055249711469711</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>0.7068089857425055</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>0.7080176171119781</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>0.7091531714196518</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>0.7102187882653871</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>0.7112181907765011</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>0.7121555081666435</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>0.7130351871101482</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>0.7138575698990101</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>0.714635782170975</v>
+      </c>
+      <c r="AS43" t="n">
+        <v>0.7153702379354169</v>
+      </c>
+      <c r="AT43" t="n">
+        <v>0.7160655744481211</v>
+      </c>
+      <c r="AU43" t="n">
+        <v>0.7167262434120668</v>
+      </c>
+      <c r="AV43" t="n">
+        <v>0.7173544242910522</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1180,6 +6727,135 @@
       <c r="E44" t="n">
         <v>0.6896283323993565</v>
       </c>
+      <c r="F44" t="n">
+        <v>0.6869449922169368</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.685317956443632</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.6845892255566839</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.6847083583738029</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.6854690376376872</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.6867617774588198</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.6884220792982115</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.6904376864159716</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.6927297441926888</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.6952273996338212</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.6978676471992252</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.7005949772847173</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.7033616090708736</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0.706126522805698</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0.7088552882176526</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0.7115195595714754</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0.7140965602506465</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0.7165685539008819</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0.7189223156649995</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0.7211487591979437</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>0.723241947923141</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>0.7251991869542361</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>0.7270203486835835</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>0.7287074659052132</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>0.7302643542312963</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>0.7316962676779079</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>0.7330095875455584</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>0.734211544014079</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>0.73530074310043</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>0.7362939045244615</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>0.7372107052378222</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>0.7380487236552263</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>0.7388163939328414</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>0.7395219738416609</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>0.7401733888169465</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>0.74077813084538</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>0.741343307577329</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>0.7418861429714905</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>0.7423886974339977</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>0.7428705617401021</v>
+      </c>
+      <c r="AT44" t="n">
+        <v>0.7433366089281985</v>
+      </c>
+      <c r="AU44" t="n">
+        <v>0.7437911943008527</v>
+      </c>
+      <c r="AV44" t="n">
+        <v>0.744247277715257</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1197,6 +6873,135 @@
       <c r="E45" t="n">
         <v>0.6900654518531592</v>
       </c>
+      <c r="F45" t="n">
+        <v>0.6834861501834236</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.6786642845031696</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.67555333491249</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.6741130572724875</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.6741114965015353</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.6753338247681097</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.6774681131322435</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.6804217875184152</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.6840206782351427</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.688105563828649</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.6925338343750975</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.6971800862316564</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.7019358741343621</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.70670905836386</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0.7114227702815702</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0.7160141870787697</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0.7204332339641936</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0.7246412608652382</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0.7286097375852324</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0.7323189740713487</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>0.7357570259500757</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>0.7389184490197254</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>0.7418033374239101</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>0.7444163892804032</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>0.746766054939807</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>0.7488637717943248</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>0.7507232825387044</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>0.7523600327760792</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>0.7537881884525666</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>0.7550235175840754</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>0.7560901663178843</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>0.757004367359728</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>0.7577828862120135</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>0.7584425090778668</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>0.7589993788982996</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>0.7594688061254334</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>0.7598651593043522</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>0.760203945723845</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>0.7604903758659429</v>
+      </c>
+      <c r="AS45" t="n">
+        <v>0.7607411118953367</v>
+      </c>
+      <c r="AT45" t="n">
+        <v>0.7609662143988488</v>
+      </c>
+      <c r="AU45" t="n">
+        <v>0.7611744932435441</v>
+      </c>
+      <c r="AV45" t="n">
+        <v>0.7613716185078593</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1214,6 +7019,135 @@
       <c r="E46" t="n">
         <v>-1.287139534912918</v>
       </c>
+      <c r="F46" t="n">
+        <v>-1.291339762471761</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-1.296170922934452</v>
+      </c>
+      <c r="H46" t="n">
+        <v>-1.301315653696592</v>
+      </c>
+      <c r="I46" t="n">
+        <v>-1.306398031448699</v>
+      </c>
+      <c r="J46" t="n">
+        <v>-1.3113885441256</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-1.31619171615568</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-1.320945383950546</v>
+      </c>
+      <c r="M46" t="n">
+        <v>-1.325435152283738</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-1.32964891557079</v>
+      </c>
+      <c r="O46" t="n">
+        <v>-1.333589087661927</v>
+      </c>
+      <c r="P46" t="n">
+        <v>-1.33726789229737</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>-1.340703855333154</v>
+      </c>
+      <c r="R46" t="n">
+        <v>-1.343918926146765</v>
+      </c>
+      <c r="S46" t="n">
+        <v>-1.346936695811561</v>
+      </c>
+      <c r="T46" t="n">
+        <v>-1.349781000553502</v>
+      </c>
+      <c r="U46" t="n">
+        <v>-1.352474930081917</v>
+      </c>
+      <c r="V46" t="n">
+        <v>-1.355040182995131</v>
+      </c>
+      <c r="W46" t="n">
+        <v>-1.357496663423024</v>
+      </c>
+      <c r="X46" t="n">
+        <v>-1.359862257258724</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>-1.362152632039256</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>-1.364381577844515</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>-1.366560722039452</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>-1.368699772946741</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>-1.370806663453344</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>-1.372887711690476</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>-1.374947790106104</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>-1.376990495889323</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>-1.379018317784321</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>-1.380880018960648</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>-1.38274338721805</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>-1.3847521057546</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>-1.38674500067857</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>-1.388722052338881</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>-1.390682514974708</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>-1.392625295002711</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>-1.394549094590108</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>-1.39645243600255</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>-1.398462155939935</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>-1.400313992421395</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>-1.402141489390944</v>
+      </c>
+      <c r="AT46" t="n">
+        <v>-1.403943070171277</v>
+      </c>
+      <c r="AU46" t="n">
+        <v>-1.405717384004545</v>
+      </c>
+      <c r="AV46" t="n">
+        <v>-1.407592012879853</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1231,6 +7165,135 @@
       <c r="E47" t="n">
         <v>-1.001876326985948</v>
       </c>
+      <c r="F47" t="n">
+        <v>-1.005579824576671</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-1.009660513164893</v>
+      </c>
+      <c r="H47" t="n">
+        <v>-1.013902015686475</v>
+      </c>
+      <c r="I47" t="n">
+        <v>-1.018015584055547</v>
+      </c>
+      <c r="J47" t="n">
+        <v>-1.022011424967945</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-1.025826094357427</v>
+      </c>
+      <c r="L47" t="n">
+        <v>-1.029586803867036</v>
+      </c>
+      <c r="M47" t="n">
+        <v>-1.033119636662084</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-1.036420333186006</v>
+      </c>
+      <c r="O47" t="n">
+        <v>-1.039494936714363</v>
+      </c>
+      <c r="P47" t="n">
+        <v>-1.042356432794279</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>-1.04502217873126</v>
+      </c>
+      <c r="R47" t="n">
+        <v>-1.047511675256367</v>
+      </c>
+      <c r="S47" t="n">
+        <v>-1.049845331255999</v>
+      </c>
+      <c r="T47" t="n">
+        <v>-1.052043388238771</v>
+      </c>
+      <c r="U47" t="n">
+        <v>-1.054125190081039</v>
+      </c>
+      <c r="V47" t="n">
+        <v>-1.056108716592685</v>
+      </c>
+      <c r="W47" t="n">
+        <v>-1.058010301144709</v>
+      </c>
+      <c r="X47" t="n">
+        <v>-1.059844485619433</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>-1.061623865476394</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>-1.063359473451043</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>-1.065060466042241</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>-1.066734389967078</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>-1.068387309452646</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>-1.070023949348039</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>-1.071647843480185</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>-1.073261482471954</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>-1.074866457148398</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>-1.076337274997692</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>-1.07781228640053</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>-1.079410064661279</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>-1.08099640882902</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>-1.082571359528066</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>-1.084133994541999</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>-1.085683115462996</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>-1.087217383638591</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>-1.088735351443137</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>-1.090343128169939</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>-1.091818886794734</v>
+      </c>
+      <c r="AS47" t="n">
+        <v>-1.093274757581478</v>
+      </c>
+      <c r="AT47" t="n">
+        <v>-1.09470918214735</v>
+      </c>
+      <c r="AU47" t="n">
+        <v>-1.096120934153279</v>
+      </c>
+      <c r="AV47" t="n">
+        <v>-1.097616963580631</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1248,6 +7311,135 @@
       <c r="E48" t="n">
         <v>-0.8763233849536985</v>
       </c>
+      <c r="F48" t="n">
+        <v>-0.8790422123536087</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-0.8821666207052938</v>
+      </c>
+      <c r="H48" t="n">
+        <v>-0.8854395439119811</v>
+      </c>
+      <c r="I48" t="n">
+        <v>-0.8885416567481922</v>
+      </c>
+      <c r="J48" t="n">
+        <v>-0.8915085922601983</v>
+      </c>
+      <c r="K48" t="n">
+        <v>-0.894289462114166</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-0.8970368263703313</v>
+      </c>
+      <c r="M48" t="n">
+        <v>-0.8995750794660471</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-0.9019119296547513</v>
+      </c>
+      <c r="O48" t="n">
+        <v>-0.9040636686550777</v>
+      </c>
+      <c r="P48" t="n">
+        <v>-0.906051527485531</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>-0.9078989987697914</v>
+      </c>
+      <c r="R48" t="n">
+        <v>-0.909630067948483</v>
+      </c>
+      <c r="S48" t="n">
+        <v>-0.9112677587824548</v>
+      </c>
+      <c r="T48" t="n">
+        <v>-0.9128334551097375</v>
+      </c>
+      <c r="U48" t="n">
+        <v>-0.9143463715128267</v>
+      </c>
+      <c r="V48" t="n">
+        <v>-0.9158232954739577</v>
+      </c>
+      <c r="W48" t="n">
+        <v>-0.9172785001724778</v>
+      </c>
+      <c r="X48" t="n">
+        <v>-0.9187237777636554</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>-0.9201685345039977</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>-0.9216200058547678</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>-0.9230834372526369</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>-0.924562299236794</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>-0.9260585124351779</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>-0.9275726698408456</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>-0.9291042505109997</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>-0.9306518204897813</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>-0.9322132184326899</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>-0.9336578853411815</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>-0.9351221057720289</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>-0.9367244887052477</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>-0.9383250126405346</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>-0.9399210746479161</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>-0.9415095026968673</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>-0.9430870993231968</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>-0.9446507550640866</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>-0.9461975059871113</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>-0.9478387005015496</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>-0.9493375270737809</v>
+      </c>
+      <c r="AS48" t="n">
+        <v>-0.9508126593181598</v>
+      </c>
+      <c r="AT48" t="n">
+        <v>-0.9522618315817516</v>
+      </c>
+      <c r="AU48" t="n">
+        <v>-0.9536832404136056</v>
+      </c>
+      <c r="AV48" t="n">
+        <v>-0.9551913995245841</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1265,6 +7457,135 @@
       <c r="E49" t="n">
         <v>-0.6405833373530738</v>
       </c>
+      <c r="F49" t="n">
+        <v>-0.6427353187219816</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-0.6453016592818895</v>
+      </c>
+      <c r="H49" t="n">
+        <v>-0.6480323540431354</v>
+      </c>
+      <c r="I49" t="n">
+        <v>-0.6506583515861557</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-0.6531723669113986</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-0.6555267886253999</v>
+      </c>
+      <c r="L49" t="n">
+        <v>-0.6578374130720622</v>
+      </c>
+      <c r="M49" t="n">
+        <v>-0.6599694688366918</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-0.6619281625084141</v>
+      </c>
+      <c r="O49" t="n">
+        <v>-0.6637266175131522</v>
+      </c>
+      <c r="P49" t="n">
+        <v>-0.665382476806601</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>-0.6669154626225482</v>
+      </c>
+      <c r="R49" t="n">
+        <v>-0.6683458509459773</v>
+      </c>
+      <c r="S49" t="n">
+        <v>-0.6696931513711037</v>
+      </c>
+      <c r="T49" t="n">
+        <v>-0.6709754949427615</v>
+      </c>
+      <c r="U49" t="n">
+        <v>-0.6722091901623857</v>
+      </c>
+      <c r="V49" t="n">
+        <v>-0.6734084992183006</v>
+      </c>
+      <c r="W49" t="n">
+        <v>-0.6745855631595024</v>
+      </c>
+      <c r="X49" t="n">
+        <v>-0.6757504311991649</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>-0.6769111849542546</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>-0.6780739782085328</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>-0.6792433623167584</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>-0.6804223975705882</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>-0.6816128453539609</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>-0.6828153567200296</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>-0.6840296527233511</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>-0.6852546933113766</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>-0.6864888328221197</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>-0.6876264532000804</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>-0.6887774782107157</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>-0.6900383642954963</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>-0.6912962813242849</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>-0.6925489592324265</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>-0.6937938821761449</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>-0.6950285244817762</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>-0.6962504374078496</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>-0.6974572767627257</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>-0.6987395893844512</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>-0.6999052463355088</v>
+      </c>
+      <c r="AS49" t="n">
+        <v>-0.7010504590231055</v>
+      </c>
+      <c r="AT49" t="n">
+        <v>-0.7021735139246376</v>
+      </c>
+      <c r="AU49" t="n">
+        <v>-0.7032730117347001</v>
+      </c>
+      <c r="AV49" t="n">
+        <v>-0.7044425278388692</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1282,6 +7603,135 @@
       <c r="E50" t="n">
         <v>-0.05564976943684601</v>
       </c>
+      <c r="F50" t="n">
+        <v>-0.05805896480674531</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-0.0604406209798556</v>
+      </c>
+      <c r="H50" t="n">
+        <v>-0.06276748066334757</v>
+      </c>
+      <c r="I50" t="n">
+        <v>-0.06496713825149329</v>
+      </c>
+      <c r="J50" t="n">
+        <v>-0.06705474164879927</v>
+      </c>
+      <c r="K50" t="n">
+        <v>-0.06901661306805423</v>
+      </c>
+      <c r="L50" t="n">
+        <v>-0.07090697000933507</v>
+      </c>
+      <c r="M50" t="n">
+        <v>-0.07266733972235045</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-0.074298504997392</v>
+      </c>
+      <c r="O50" t="n">
+        <v>-0.07580433202996699</v>
+      </c>
+      <c r="P50" t="n">
+        <v>-0.0771909382736434</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>-0.07846606315338797</v>
+      </c>
+      <c r="R50" t="n">
+        <v>-0.0796380268601129</v>
+      </c>
+      <c r="S50" t="n">
+        <v>-0.08071575201564225</v>
+      </c>
+      <c r="T50" t="n">
+        <v>-0.08170817216006813</v>
+      </c>
+      <c r="U50" t="n">
+        <v>-0.08262399028448179</v>
+      </c>
+      <c r="V50" t="n">
+        <v>-0.08347149336133335</v>
+      </c>
+      <c r="W50" t="n">
+        <v>-0.08425842878927267</v>
+      </c>
+      <c r="X50" t="n">
+        <v>-0.08499192917938567</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>-0.08567836549631139</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>-0.08632370075187638</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>-0.08693307966621111</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>-0.08751102894549348</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>-0.08806148456113984</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>-0.08858783160397343</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>-0.08909294871308068</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>-0.08957925462768146</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>-0.09004875517341618</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>-0.09043785246937158</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>-0.09081856405611785</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>-0.09125421482093564</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>-0.09167668601530625</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>-0.09208701360906439</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>-0.09248576031483155</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>-0.09287330630618323</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>-0.09324989985158297</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>-0.09361568021385633</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>-0.09402719446029327</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>-0.09436863044948018</v>
+      </c>
+      <c r="AS50" t="n">
+        <v>-0.09469957823518357</v>
+      </c>
+      <c r="AT50" t="n">
+        <v>-0.09501987262070573</v>
+      </c>
+      <c r="AU50" t="n">
+        <v>-0.09532942275913298</v>
+      </c>
+      <c r="AV50" t="n">
+        <v>-0.09568439772594978</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1299,6 +7749,135 @@
       <c r="E51" t="n">
         <v>-0.8646445526355072</v>
       </c>
+      <c r="F51" t="n">
+        <v>-0.8671969422272907</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-0.8699900905422057</v>
+      </c>
+      <c r="H51" t="n">
+        <v>-0.8727550813296231</v>
+      </c>
+      <c r="I51" t="n">
+        <v>-0.8751890091589246</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-0.87735446193573</v>
+      </c>
+      <c r="K51" t="n">
+        <v>-0.8792381738591576</v>
+      </c>
+      <c r="L51" t="n">
+        <v>-0.8810290158665208</v>
+      </c>
+      <c r="M51" t="n">
+        <v>-0.8825750270053234</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-0.8839077368940873</v>
+      </c>
+      <c r="O51" t="n">
+        <v>-0.8850632705024025</v>
+      </c>
+      <c r="P51" t="n">
+        <v>-0.8860788096707028</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>-0.8869901528792941</v>
+      </c>
+      <c r="R51" t="n">
+        <v>-0.8878306938796896</v>
+      </c>
+      <c r="S51" t="n">
+        <v>-0.8886300225963181</v>
+      </c>
+      <c r="T51" t="n">
+        <v>-0.8894138109749692</v>
+      </c>
+      <c r="U51" t="n">
+        <v>-0.890203663863018</v>
+      </c>
+      <c r="V51" t="n">
+        <v>-0.8910172003058028</v>
+      </c>
+      <c r="W51" t="n">
+        <v>-0.8918682652563034</v>
+      </c>
+      <c r="X51" t="n">
+        <v>-0.8927672229750582</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>-0.8937213811901388</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>-0.8947350334995778</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>-0.8958102396527325</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>-0.8969469909187225</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>-0.8981435545620097</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>-0.8993967934457259</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>-0.9007024589868481</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>-0.9020554559332057</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>-0.9034500786246634</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>-0.9047768966328238</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>-0.9061416922981003</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>-0.907637104986476</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>-0.9091468326759331</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>-0.9106654745868366</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>-0.9121874469839768</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>-0.9137073940044614</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>-0.9152202925668851</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>-0.9167214864704877</v>
+      </c>
+      <c r="AQ51" t="n">
+        <v>-0.9183020251616437</v>
+      </c>
+      <c r="AR51" t="n">
+        <v>-0.919763182969098</v>
+      </c>
+      <c r="AS51" t="n">
+        <v>-0.9212017902359411</v>
+      </c>
+      <c r="AT51" t="n">
+        <v>-0.9226147527773029</v>
+      </c>
+      <c r="AU51" t="n">
+        <v>-0.9239995674891593</v>
+      </c>
+      <c r="AV51" t="n">
+        <v>-0.9254532640617332</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1316,6 +7895,135 @@
       <c r="E52" t="n">
         <v>-0.8646445526355072</v>
       </c>
+      <c r="F52" t="n">
+        <v>-0.8671969422272907</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-0.8699900905422057</v>
+      </c>
+      <c r="H52" t="n">
+        <v>-0.8727550813296231</v>
+      </c>
+      <c r="I52" t="n">
+        <v>-0.8751890091589246</v>
+      </c>
+      <c r="J52" t="n">
+        <v>-0.87735446193573</v>
+      </c>
+      <c r="K52" t="n">
+        <v>-0.8792381738591576</v>
+      </c>
+      <c r="L52" t="n">
+        <v>-0.8810290158665208</v>
+      </c>
+      <c r="M52" t="n">
+        <v>-0.8825750270053234</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-0.8839077368940873</v>
+      </c>
+      <c r="O52" t="n">
+        <v>-0.8850632705024025</v>
+      </c>
+      <c r="P52" t="n">
+        <v>-0.8860788096707028</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>-0.8869901528792941</v>
+      </c>
+      <c r="R52" t="n">
+        <v>-0.8878306938796896</v>
+      </c>
+      <c r="S52" t="n">
+        <v>-0.8886300225963181</v>
+      </c>
+      <c r="T52" t="n">
+        <v>-0.8894138109749692</v>
+      </c>
+      <c r="U52" t="n">
+        <v>-0.890203663863018</v>
+      </c>
+      <c r="V52" t="n">
+        <v>-0.8910172003058028</v>
+      </c>
+      <c r="W52" t="n">
+        <v>-0.8918682652563034</v>
+      </c>
+      <c r="X52" t="n">
+        <v>-0.8927672229750582</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>-0.8937213811901388</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>-0.8947350334995778</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>-0.8958102396527325</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>-0.8969469909187225</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>-0.8981435545620097</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>-0.8993967934457259</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>-0.9007024589868481</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>-0.9020554559332057</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>-0.9034500786246634</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>-0.9047768966328238</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>-0.9061416922981003</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>-0.907637104986476</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>-0.9091468326759331</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>-0.9106654745868366</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>-0.9121874469839768</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>-0.9137073940044614</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>-0.9152202925668851</v>
+      </c>
+      <c r="AP52" t="n">
+        <v>-0.9167214864704877</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>-0.9183020251616437</v>
+      </c>
+      <c r="AR52" t="n">
+        <v>-0.919763182969098</v>
+      </c>
+      <c r="AS52" t="n">
+        <v>-0.9212017902359411</v>
+      </c>
+      <c r="AT52" t="n">
+        <v>-0.9226147527773029</v>
+      </c>
+      <c r="AU52" t="n">
+        <v>-0.9239995674891593</v>
+      </c>
+      <c r="AV52" t="n">
+        <v>-0.9254532640617332</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1333,6 +8041,135 @@
       <c r="E53" t="n">
         <v>-1.13461654137685</v>
       </c>
+      <c r="F53" t="n">
+        <v>-1.138548386644459</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-1.142845014649711</v>
+      </c>
+      <c r="H53" t="n">
+        <v>-1.14726793751396</v>
+      </c>
+      <c r="I53" t="n">
+        <v>-1.151434092490346</v>
+      </c>
+      <c r="J53" t="n">
+        <v>-1.155466404182882</v>
+      </c>
+      <c r="K53" t="n">
+        <v>-1.159308901812861</v>
+      </c>
+      <c r="L53" t="n">
+        <v>-1.163162602547942</v>
+      </c>
+      <c r="M53" t="n">
+        <v>-1.166780179862186</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-1.170164136470545</v>
+      </c>
+      <c r="O53" t="n">
+        <v>-1.173325949947148</v>
+      </c>
+      <c r="P53" t="n">
+        <v>-1.176282756656951</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>-1.179054853289729</v>
+      </c>
+      <c r="R53" t="n">
+        <v>-1.181664048679682</v>
+      </c>
+      <c r="S53" t="n">
+        <v>-1.184132096891171</v>
+      </c>
+      <c r="T53" t="n">
+        <v>-1.186480043416198</v>
+      </c>
+      <c r="U53" t="n">
+        <v>-1.18872757446305</v>
+      </c>
+      <c r="V53" t="n">
+        <v>-1.190892646603222</v>
+      </c>
+      <c r="W53" t="n">
+        <v>-1.192991280527649</v>
+      </c>
+      <c r="X53" t="n">
+        <v>-1.195037476214637</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>-1.197043176955938</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>-1.199018437648028</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>-1.200971461277551</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>-1.202908744550981</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>-1.204835238303992</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>-1.206754512647744</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>-1.208668924225323</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>-1.210579780566252</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>-1.21248749804168</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>-1.214236314165927</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>-1.215993688891905</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>-1.217907825187892</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>-1.219811484864535</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>-1.221703533532425</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>-1.223582180108218</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>-1.22544542905916</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>-1.227291187680316</v>
+      </c>
+      <c r="AP53" t="n">
+        <v>-1.229117360476263</v>
+      </c>
+      <c r="AQ53" t="n">
+        <v>-1.231061150511792</v>
+      </c>
+      <c r="AR53" t="n">
+        <v>-1.232834390592105</v>
+      </c>
+      <c r="AS53" t="n">
+        <v>-1.234583079096196</v>
+      </c>
+      <c r="AT53" t="n">
+        <v>-1.236305290337752</v>
+      </c>
+      <c r="AU53" t="n">
+        <v>-1.237999424805457</v>
+      </c>
+      <c r="AV53" t="n">
+        <v>-1.239804836907865</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1350,6 +8187,135 @@
       <c r="E54" t="n">
         <v>-0.1781460922326115</v>
       </c>
+      <c r="F54" t="n">
+        <v>-0.1794032741541216</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-0.1808016221191733</v>
+      </c>
+      <c r="H54" t="n">
+        <v>-0.1822177745767486</v>
+      </c>
+      <c r="I54" t="n">
+        <v>-0.1835099831477891</v>
+      </c>
+      <c r="J54" t="n">
+        <v>-0.1847037369002561</v>
+      </c>
+      <c r="K54" t="n">
+        <v>-0.1857923160291586</v>
+      </c>
+      <c r="L54" t="n">
+        <v>-0.1868696039038064</v>
+      </c>
+      <c r="M54" t="n">
+        <v>-0.1878578054901819</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-0.1887681291253274</v>
+      </c>
+      <c r="O54" t="n">
+        <v>-0.1896136105963865</v>
+      </c>
+      <c r="P54" t="n">
+        <v>-0.1904076050480848</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>-0.1911628217606181</v>
+      </c>
+      <c r="R54" t="n">
+        <v>-0.1918907547159301</v>
+      </c>
+      <c r="S54" t="n">
+        <v>-0.1926014001342172</v>
+      </c>
+      <c r="T54" t="n">
+        <v>-0.1933030984897367</v>
+      </c>
+      <c r="U54" t="n">
+        <v>-0.1940025596884338</v>
+      </c>
+      <c r="V54" t="n">
+        <v>-0.194704940630746</v>
+      </c>
+      <c r="W54" t="n">
+        <v>-0.1954139699540963</v>
+      </c>
+      <c r="X54" t="n">
+        <v>-0.1961320989936663</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>-0.1968606927761779</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>-0.1976000842010853</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>-0.1983498759479173</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>-0.1991090296361164</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>-0.1998760009708461</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>-0.2006488654548871</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>-0.2014254298989669</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>-0.2022033298173954</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>-0.2029801132408621</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>-0.2036848093766609</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>-0.2043883999539589</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>-0.2051555230606342</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>-0.2059107641437838</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>-0.2066525315289628</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>-0.207379156773209</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>-0.2080891035933584</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>-0.2087809872508887</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>-0.209453636634222</v>
+      </c>
+      <c r="AQ54" t="n">
+        <v>-0.2101712970322375</v>
+      </c>
+      <c r="AR54" t="n">
+        <v>-0.2107992956300319</v>
+      </c>
+      <c r="AS54" t="n">
+        <v>-0.2114060171110267</v>
+      </c>
+      <c r="AT54" t="n">
+        <v>-0.2119908795419911</v>
+      </c>
+      <c r="AU54" t="n">
+        <v>-0.2125535543347055</v>
+      </c>
+      <c r="AV54" t="n">
+        <v>-0.2131612666388845</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1367,6 +8333,135 @@
       <c r="E55" t="n">
         <v>-1.00890386910912</v>
       </c>
+      <c r="F55" t="n">
+        <v>-1.013510631147097</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-1.018714829347797</v>
+      </c>
+      <c r="H55" t="n">
+        <v>-1.024196735786001</v>
+      </c>
+      <c r="I55" t="n">
+        <v>-1.029674868291218</v>
+      </c>
+      <c r="J55" t="n">
+        <v>-1.035009451915793</v>
+      </c>
+      <c r="K55" t="n">
+        <v>-1.040109094326486</v>
+      </c>
+      <c r="L55" t="n">
+        <v>-1.045038112421993</v>
+      </c>
+      <c r="M55" t="n">
+        <v>-1.049676141575511</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-1.05401106586491</v>
+      </c>
+      <c r="O55" t="n">
+        <v>-1.058044901855981</v>
+      </c>
+      <c r="P55" t="n">
+        <v>-1.061789334184885</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>-1.06526226466044</v>
+      </c>
+      <c r="R55" t="n">
+        <v>-1.068485303851581</v>
+      </c>
+      <c r="S55" t="n">
+        <v>-1.071481718514609</v>
+      </c>
+      <c r="T55" t="n">
+        <v>-1.074275281767318</v>
+      </c>
+      <c r="U55" t="n">
+        <v>-1.07688927443628</v>
+      </c>
+      <c r="V55" t="n">
+        <v>-1.079345852639284</v>
+      </c>
+      <c r="W55" t="n">
+        <v>-1.081665641612107</v>
+      </c>
+      <c r="X55" t="n">
+        <v>-1.083867497842779</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>-1.085968326193484</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>-1.087983266253582</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>-1.089925512464487</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>-1.091806475063859</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>-1.093635890884784</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>-1.095421951694216</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>-1.097171442743845</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>-1.09888988483346</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>-1.100581675329471</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>-1.102104316819023</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>-1.103621154348884</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>-1.105271103719179</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>-1.106899614005196</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>-1.108508793869623</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>-1.11009944622379</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>-1.111671864625025</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>-1.113225980504098</v>
+      </c>
+      <c r="AP55" t="n">
+        <v>-1.114761465688456</v>
+      </c>
+      <c r="AQ55" t="n">
+        <v>-1.116400998237057</v>
+      </c>
+      <c r="AR55" t="n">
+        <v>-1.117890359194481</v>
+      </c>
+      <c r="AS55" t="n">
+        <v>-1.119360242414059</v>
+      </c>
+      <c r="AT55" t="n">
+        <v>-1.120809507750548</v>
+      </c>
+      <c r="AU55" t="n">
+        <v>-1.122237281114393</v>
+      </c>
+      <c r="AV55" t="n">
+        <v>-1.123765139572221</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1384,6 +8479,135 @@
       <c r="E56" t="n">
         <v>-0.8868200755461725</v>
       </c>
+      <c r="F56" t="n">
+        <v>-0.8911853990022998</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-0.8957876576842178</v>
+      </c>
+      <c r="H56" t="n">
+        <v>-0.9004565353751184</v>
+      </c>
+      <c r="I56" t="n">
+        <v>-0.9050507615328051</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-0.9094554192150553</v>
+      </c>
+      <c r="K56" t="n">
+        <v>-0.9136216342356444</v>
+      </c>
+      <c r="L56" t="n">
+        <v>-0.9176055208761889</v>
+      </c>
+      <c r="M56" t="n">
+        <v>-0.9213422840091881</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-0.9248314359677994</v>
+      </c>
+      <c r="O56" t="n">
+        <v>-0.9280816057378611</v>
+      </c>
+      <c r="P56" t="n">
+        <v>-0.9311073687052709</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>-0.9339270067872991</v>
+      </c>
+      <c r="R56" t="n">
+        <v>-0.9365600283838246</v>
+      </c>
+      <c r="S56" t="n">
+        <v>-0.9390266437642099</v>
+      </c>
+      <c r="T56" t="n">
+        <v>-0.9413465262759813</v>
+      </c>
+      <c r="U56" t="n">
+        <v>-0.9435382473966305</v>
+      </c>
+      <c r="V56" t="n">
+        <v>-0.9456189111500457</v>
+      </c>
+      <c r="W56" t="n">
+        <v>-0.9476039559350509</v>
+      </c>
+      <c r="X56" t="n">
+        <v>-0.9495070773681068</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>-0.9513400593391392</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>-0.9531134278010428</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>-0.9548358858888233</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>-0.9565147130318554</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>-0.9581558946624625</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>-0.9597642624575304</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>-0.9613436339974929</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>-0.9628969475491334</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>-0.9644263892607149</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>-0.9658263283379999</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>-0.9672154115636926</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>-0.9686938723242395</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>-0.9701498538882077</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>-0.9715839689596727</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>-0.9729963293536938</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>-0.9743868146821856</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>-0.9757551634412677</v>
+      </c>
+      <c r="AP56" t="n">
+        <v>-0.9771009982602131</v>
+      </c>
+      <c r="AQ56" t="n">
+        <v>-0.9785112501990585</v>
+      </c>
+      <c r="AR56" t="n">
+        <v>-0.9798073626366233</v>
+      </c>
+      <c r="AS56" t="n">
+        <v>-0.9810799538072309</v>
+      </c>
+      <c r="AT56" t="n">
+        <v>-0.9823285738884091</v>
+      </c>
+      <c r="AU56" t="n">
+        <v>-0.9835528976610982</v>
+      </c>
+      <c r="AV56" t="n">
+        <v>-0.9848397272425269</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1401,6 +8625,135 @@
       <c r="E57" t="n">
         <v>-0.9479097134047367</v>
       </c>
+      <c r="F57" t="n">
+        <v>-0.9477900561973662</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-0.9486418261501666</v>
+      </c>
+      <c r="H57" t="n">
+        <v>-0.9503154325155461</v>
+      </c>
+      <c r="I57" t="n">
+        <v>-0.9526005916914243</v>
+      </c>
+      <c r="J57" t="n">
+        <v>-0.9554407098599956</v>
+      </c>
+      <c r="K57" t="n">
+        <v>-0.958721549643279</v>
+      </c>
+      <c r="L57" t="n">
+        <v>-0.9624415950737077</v>
+      </c>
+      <c r="M57" t="n">
+        <v>-0.9664176114959099</v>
+      </c>
+      <c r="N57" t="n">
+        <v>-0.9705751813445869</v>
+      </c>
+      <c r="O57" t="n">
+        <v>-0.9748499318074914</v>
+      </c>
+      <c r="P57" t="n">
+        <v>-0.9791866908261543</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>-0.9835385983231097</v>
+      </c>
+      <c r="R57" t="n">
+        <v>-0.9878662709151507</v>
+      </c>
+      <c r="S57" t="n">
+        <v>-0.9921368734157073</v>
+      </c>
+      <c r="T57" t="n">
+        <v>-0.9963235408134057</v>
+      </c>
+      <c r="U57" t="n">
+        <v>-1.000404652511867</v>
+      </c>
+      <c r="V57" t="n">
+        <v>-1.004363219183052</v>
+      </c>
+      <c r="W57" t="n">
+        <v>-1.008186322925177</v>
+      </c>
+      <c r="X57" t="n">
+        <v>-1.011864606901042</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>-1.01539174707766</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>-1.018764223503047</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>-1.021980738425802</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>-1.025041935018901</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>-1.027950084425467</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>-1.030708801334976</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>-1.033322788889757</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>-1.035797610671315</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>-1.038139487910768</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>-1.040249961345302</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>-1.042246350601387</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>-1.044238995772851</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>-1.046125742777393</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>-1.047914415659688</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>-1.049612288532539</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>-1.051226387926201</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>-1.052763465974712</v>
+      </c>
+      <c r="AP57" t="n">
+        <v>-1.054229962120365</v>
+      </c>
+      <c r="AQ57" t="n">
+        <v>-1.055727799104629</v>
+      </c>
+      <c r="AR57" t="n">
+        <v>-1.0570659713626</v>
+      </c>
+      <c r="AS57" t="n">
+        <v>-1.058351450391109</v>
+      </c>
+      <c r="AT57" t="n">
+        <v>-1.059588964665819</v>
+      </c>
+      <c r="AU57" t="n">
+        <v>-1.060782994767551</v>
+      </c>
+      <c r="AV57" t="n">
+        <v>-1.06203423729035</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1418,6 +8771,135 @@
       <c r="E58" t="n">
         <v>-1.12322373132611</v>
       </c>
+      <c r="F58" t="n">
+        <v>-1.119313786616444</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-1.115836751520995</v>
+      </c>
+      <c r="H58" t="n">
+        <v>-1.112983196602279</v>
+      </c>
+      <c r="I58" t="n">
+        <v>-1.110719506895376</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1.10926637850287</v>
+      </c>
+      <c r="K58" t="n">
+        <v>-1.108605144098801</v>
+      </c>
+      <c r="L58" t="n">
+        <v>-1.108787625578432</v>
+      </c>
+      <c r="M58" t="n">
+        <v>-1.109627817963276</v>
+      </c>
+      <c r="N58" t="n">
+        <v>-1.111064705995517</v>
+      </c>
+      <c r="O58" t="n">
+        <v>-1.113031088440442</v>
+      </c>
+      <c r="P58" t="n">
+        <v>-1.115457351018949</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>-1.118274369686696</v>
+      </c>
+      <c r="R58" t="n">
+        <v>-1.12141481994868</v>
+      </c>
+      <c r="S58" t="n">
+        <v>-1.124815193147957</v>
+      </c>
+      <c r="T58" t="n">
+        <v>-1.128416323377134</v>
+      </c>
+      <c r="U58" t="n">
+        <v>-1.132163941862449</v>
+      </c>
+      <c r="V58" t="n">
+        <v>-1.136008941948331</v>
+      </c>
+      <c r="W58" t="n">
+        <v>-1.139907457119152</v>
+      </c>
+      <c r="X58" t="n">
+        <v>-1.143820801359925</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>-1.147715177194294</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>-1.151561882219622</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>-1.155336536057935</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>-1.159018963500222</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>-1.162592860009363</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>-1.166045451585873</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>-1.169367154091314</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>-1.172551238048438</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>-1.175593503440943</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>-1.178423832056757</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>-1.181107072768924</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>-1.183719739450314</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>-1.186193905621675</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>-1.188533268024658</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>-1.190742731878431</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>-1.192827990966043</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>-1.194795289273247</v>
+      </c>
+      <c r="AP58" t="n">
+        <v>-1.196651340021304</v>
+      </c>
+      <c r="AQ58" t="n">
+        <v>-1.198483757698109</v>
+      </c>
+      <c r="AR58" t="n">
+        <v>-1.200134186386025</v>
+      </c>
+      <c r="AS58" t="n">
+        <v>-1.201694621745549</v>
+      </c>
+      <c r="AT58" t="n">
+        <v>-1.203172148409989</v>
+      </c>
+      <c r="AU58" t="n">
+        <v>-1.204573600307409</v>
+      </c>
+      <c r="AV58" t="n">
+        <v>-1.205990551476093</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1435,6 +8917,135 @@
       <c r="E59" t="n">
         <v>-0.8208947345536173</v>
       </c>
+      <c r="F59" t="n">
+        <v>-0.8190662814436773</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-0.8174418245050172</v>
+      </c>
+      <c r="H59" t="n">
+        <v>-0.8160329745556173</v>
+      </c>
+      <c r="I59" t="n">
+        <v>-0.8147446173753882</v>
+      </c>
+      <c r="J59" t="n">
+        <v>-0.8137398118902522</v>
+      </c>
+      <c r="K59" t="n">
+        <v>-0.8130395941406351</v>
+      </c>
+      <c r="L59" t="n">
+        <v>-0.8127633899183124</v>
+      </c>
+      <c r="M59" t="n">
+        <v>-0.8127881738524818</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-0.8131110881201713</v>
+      </c>
+      <c r="O59" t="n">
+        <v>-0.8137228902976674</v>
+      </c>
+      <c r="P59" t="n">
+        <v>-0.8146091187610019</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>-0.8157512455997192</v>
+      </c>
+      <c r="R59" t="n">
+        <v>-0.8171278721196999</v>
+      </c>
+      <c r="S59" t="n">
+        <v>-0.818715559577998</v>
+      </c>
+      <c r="T59" t="n">
+        <v>-0.8204897310982788</v>
+      </c>
+      <c r="U59" t="n">
+        <v>-0.822425375486293</v>
+      </c>
+      <c r="V59" t="n">
+        <v>-0.8244976240726165</v>
+      </c>
+      <c r="W59" t="n">
+        <v>-0.8266822157637082</v>
+      </c>
+      <c r="X59" t="n">
+        <v>-0.8289558631511269</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>-0.8312965740504259</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>-0.8336836936227027</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>-0.8360982655110626</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>-0.8385230153990489</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>-0.8409423971628746</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>-0.843342600519268</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>-0.8457115272191924</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>-0.848038742018997</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>-0.8503154037798238</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>-0.8524608752794005</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>-0.8545429159767239</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>-0.8566348585136431</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>-0.8586544275438837</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>-0.8605994083380821</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>-0.8624685604309708</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>-0.864261498401904</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>-0.8659785443799863</v>
+      </c>
+      <c r="AP59" t="n">
+        <v>-0.8676207706889005</v>
+      </c>
+      <c r="AQ59" t="n">
+        <v>-0.8692747916060753</v>
+      </c>
+      <c r="AR59" t="n">
+        <v>-0.8707679601809941</v>
+      </c>
+      <c r="AS59" t="n">
+        <v>-0.8721927651419378</v>
+      </c>
+      <c r="AT59" t="n">
+        <v>-0.8735518892437024</v>
+      </c>
+      <c r="AU59" t="n">
+        <v>-0.8748482554569655</v>
+      </c>
+      <c r="AV59" t="n">
+        <v>-0.8761755170413239</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1452,6 +9063,135 @@
       <c r="E60" t="n">
         <v>-0.4570833830422669</v>
       </c>
+      <c r="F60" t="n">
+        <v>-0.4530576513379243</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-0.4495849406120399</v>
+      </c>
+      <c r="H60" t="n">
+        <v>-0.4466304272095102</v>
+      </c>
+      <c r="I60" t="n">
+        <v>-0.4441732541988874</v>
+      </c>
+      <c r="J60" t="n">
+        <v>-0.4422298789943635</v>
+      </c>
+      <c r="K60" t="n">
+        <v>-0.4407975433394771</v>
+      </c>
+      <c r="L60" t="n">
+        <v>-0.4398802724371455</v>
+      </c>
+      <c r="M60" t="n">
+        <v>-0.4394330069305853</v>
+      </c>
+      <c r="N60" t="n">
+        <v>-0.4394274179556391</v>
+      </c>
+      <c r="O60" t="n">
+        <v>-0.4398295572115877</v>
+      </c>
+      <c r="P60" t="n">
+        <v>-0.4406014128478381</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>-0.4417022806045351</v>
+      </c>
+      <c r="R60" t="n">
+        <v>-0.4430907132884548</v>
+      </c>
+      <c r="S60" t="n">
+        <v>-0.4447249916718297</v>
+      </c>
+      <c r="T60" t="n">
+        <v>-0.4465643583993443</v>
+      </c>
+      <c r="U60" t="n">
+        <v>-0.4485697338162988</v>
+      </c>
+      <c r="V60" t="n">
+        <v>-0.4507042597804309</v>
+      </c>
+      <c r="W60" t="n">
+        <v>-0.4529336864246357</v>
+      </c>
+      <c r="X60" t="n">
+        <v>-0.4552266264446395</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>-0.4575548791701746</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>-0.4598928588650743</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>-0.4622183304805093</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>-0.4645120152613185</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>-0.466757482037726</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>-0.4689410011622951</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>-0.4710513733157905</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>-0.4730797414791871</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>-0.475019392775906</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>-0.4768307793519859</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>-0.4785418473408968</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>-0.4801933917142349</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>-0.4817468130127049</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>-0.4832030793155359</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>-0.4845642235009689</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>-0.4858330903387409</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>-0.4870131255579977</v>
+      </c>
+      <c r="AP60" t="n">
+        <v>-0.4881084232957711</v>
+      </c>
+      <c r="AQ60" t="n">
+        <v>-0.4891768166763525</v>
+      </c>
+      <c r="AR60" t="n">
+        <v>-0.4901124997011206</v>
+      </c>
+      <c r="AS60" t="n">
+        <v>-0.4909779737643459</v>
+      </c>
+      <c r="AT60" t="n">
+        <v>-0.491778136161367</v>
+      </c>
+      <c r="AU60" t="n">
+        <v>-0.4925178984321529</v>
+      </c>
+      <c r="AV60" t="n">
+        <v>-0.4932609611824348</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1469,6 +9209,135 @@
       <c r="E61" t="n">
         <v>0.3784899196947568</v>
       </c>
+      <c r="F61" t="n">
+        <v>0.379553451436361</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.3804819574100337</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.3812804107813519</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.3819824635703243</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.3825632259396796</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.3830347446605235</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.3833893705011945</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.3836629845066074</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.3838655647589163</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0.3840068761866621</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0.3840962601303672</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0.3841425084095957</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0.3841537942968721</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0.384137634932802</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0.3841008596265463</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0.3840496173344308</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0.3839893912977819</v>
+      </c>
+      <c r="W61" t="n">
+        <v>0.3839250233968407</v>
+      </c>
+      <c r="X61" t="n">
+        <v>0.3838607451363433</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>0.3838002223856932</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>0.3837465628417229</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>0.3837023897105891</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>0.3836698675148636</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>0.3836507424831962</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>0.3836463815452749</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>0.3836578100878664</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>0.3836857482732122</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>0.3837306457088365</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>0.3838152455252319</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>0.3839156832637931</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>0.3840088856809111</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>0.3841193235684657</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>0.3842463206667751</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>0.3843892582451908</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>0.3845474538942895</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>0.3847201769522527</v>
+      </c>
+      <c r="AP61" t="n">
+        <v>0.3849066415884624</v>
+      </c>
+      <c r="AQ61" t="n">
+        <v>0.3850827605806856</v>
+      </c>
+      <c r="AR61" t="n">
+        <v>0.3852960866601179</v>
+      </c>
+      <c r="AS61" t="n">
+        <v>0.3855204511073843</v>
+      </c>
+      <c r="AT61" t="n">
+        <v>0.3857551154170188</v>
+      </c>
+      <c r="AU61" t="n">
+        <v>0.385999306764907</v>
+      </c>
+      <c r="AV61" t="n">
+        <v>0.3862285826326497</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1486,6 +9355,135 @@
       <c r="E62" t="n">
         <v>-1.181088338875062</v>
       </c>
+      <c r="F62" t="n">
+        <v>-1.181872862574378</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-1.183674899268959</v>
+      </c>
+      <c r="H62" t="n">
+        <v>-1.18641050072318</v>
+      </c>
+      <c r="I62" t="n">
+        <v>-1.190072418541379</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1.194417317167522</v>
+      </c>
+      <c r="K62" t="n">
+        <v>-1.199328485342596</v>
+      </c>
+      <c r="L62" t="n">
+        <v>-1.204649854922136</v>
+      </c>
+      <c r="M62" t="n">
+        <v>-1.210354717098688</v>
+      </c>
+      <c r="N62" t="n">
+        <v>-1.216346353923493</v>
+      </c>
+      <c r="O62" t="n">
+        <v>-1.222536102284114</v>
+      </c>
+      <c r="P62" t="n">
+        <v>-1.228844151164087</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>-1.235199669445941</v>
+      </c>
+      <c r="R62" t="n">
+        <v>-1.241540751127417</v>
+      </c>
+      <c r="S62" t="n">
+        <v>-1.247813879229805</v>
+      </c>
+      <c r="T62" t="n">
+        <v>-1.253973709486883</v>
+      </c>
+      <c r="U62" t="n">
+        <v>-1.259982480421345</v>
+      </c>
+      <c r="V62" t="n">
+        <v>-1.265809453204181</v>
+      </c>
+      <c r="W62" t="n">
+        <v>-1.271430324030904</v>
+      </c>
+      <c r="X62" t="n">
+        <v>-1.276826626902891</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>-1.281985079802545</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>-1.286897209090796</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>-1.29155854291227</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>-1.295968188962928</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>-1.300128324562014</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>-1.304043722728131</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>-1.307721313761641</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>-1.311169782226311</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>-1.314399199422422</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>-1.317276431513697</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>-1.319965906684056</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>-1.322625456724312</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>-1.325110074580527</v>
+      </c>
+      <c r="AL62" t="n">
+        <v>-1.32743435588458</v>
+      </c>
+      <c r="AM62" t="n">
+        <v>-1.329611395615923</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>-1.33165385545798</v>
+      </c>
+      <c r="AO62" t="n">
+        <v>-1.333573837163491</v>
+      </c>
+      <c r="AP62" t="n">
+        <v>-1.335383113993982</v>
+      </c>
+      <c r="AQ62" t="n">
+        <v>-1.33723438372396</v>
+      </c>
+      <c r="AR62" t="n">
+        <v>-1.338842963347357</v>
+      </c>
+      <c r="AS62" t="n">
+        <v>-1.340374076747921</v>
+      </c>
+      <c r="AT62" t="n">
+        <v>-1.341836028438154</v>
+      </c>
+      <c r="AU62" t="n">
+        <v>-1.343236833813042</v>
+      </c>
+      <c r="AV62" t="n">
+        <v>-1.344723960547278</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1503,6 +9501,135 @@
       <c r="E63" t="n">
         <v>-0.6515431006322674</v>
       </c>
+      <c r="F63" t="n">
+        <v>-0.6416956716061523</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-0.6330897891022853</v>
+      </c>
+      <c r="H63" t="n">
+        <v>-0.6253723143900102</v>
+      </c>
+      <c r="I63" t="n">
+        <v>-0.61821048903998</v>
+      </c>
+      <c r="J63" t="n">
+        <v>-0.6117158139774881</v>
+      </c>
+      <c r="K63" t="n">
+        <v>-0.6058698223712998</v>
+      </c>
+      <c r="L63" t="n">
+        <v>-0.6008077132041708</v>
+      </c>
+      <c r="M63" t="n">
+        <v>-0.5963481355775245</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-0.5924875211548883</v>
+      </c>
+      <c r="O63" t="n">
+        <v>-0.589217413055426</v>
+      </c>
+      <c r="P63" t="n">
+        <v>-0.5865231696942397</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>-0.5843834116928343</v>
+      </c>
+      <c r="R63" t="n">
+        <v>-0.5827723149016639</v>
+      </c>
+      <c r="S63" t="n">
+        <v>-0.5816586037553101</v>
+      </c>
+      <c r="T63" t="n">
+        <v>-0.5810074140326158</v>
+      </c>
+      <c r="U63" t="n">
+        <v>-0.5807813096012583</v>
+      </c>
+      <c r="V63" t="n">
+        <v>-0.5809412480637168</v>
+      </c>
+      <c r="W63" t="n">
+        <v>-0.5814474476591335</v>
+      </c>
+      <c r="X63" t="n">
+        <v>-0.58226014239794</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>-0.5833407228517166</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>-0.5846505323106023</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>-0.5861533621341418</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>-0.5878149186733362</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>-0.5896030877136605</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>-0.5914881201543205</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>-0.5934427488645085</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>-0.5954422468623223</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>-0.5974644359852314</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>-0.5994739904635602</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>-0.6014653804960263</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>-0.6034461780146293</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>-0.605384607273652</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>-0.6072708035207096</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>-0.6090963411619765</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>-0.6108545288820849</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>-0.6125403023887503</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>-0.6141500814709441</v>
+      </c>
+      <c r="AQ63" t="n">
+        <v>-0.6157244777349112</v>
+      </c>
+      <c r="AR63" t="n">
+        <v>-0.6171744736994305</v>
+      </c>
+      <c r="AS63" t="n">
+        <v>-0.6185457372320198</v>
+      </c>
+      <c r="AT63" t="n">
+        <v>-0.6198388077165609</v>
+      </c>
+      <c r="AU63" t="n">
+        <v>-0.62105521538581</v>
+      </c>
+      <c r="AV63" t="n">
+        <v>-0.6222518278545868</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1520,6 +9647,135 @@
       <c r="E64" t="n">
         <v>-0.903741496831765</v>
       </c>
+      <c r="F64" t="n">
+        <v>-0.898027673647564</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-0.8932698193350649</v>
+      </c>
+      <c r="H64" t="n">
+        <v>-0.8893847943130078</v>
+      </c>
+      <c r="I64" t="n">
+        <v>-0.8860922307734075</v>
+      </c>
+      <c r="J64" t="n">
+        <v>-0.883628622922533</v>
+      </c>
+      <c r="K64" t="n">
+        <v>-0.8819405698118069</v>
+      </c>
+      <c r="L64" t="n">
+        <v>-0.8811314341721717</v>
+      </c>
+      <c r="M64" t="n">
+        <v>-0.8809393005642661</v>
+      </c>
+      <c r="N64" t="n">
+        <v>-0.8813074515513959</v>
+      </c>
+      <c r="O64" t="n">
+        <v>-0.8821774016079965</v>
+      </c>
+      <c r="P64" t="n">
+        <v>-0.8834903608484506</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>-0.8851882492317014</v>
+      </c>
+      <c r="R64" t="n">
+        <v>-0.8872156828216298</v>
+      </c>
+      <c r="S64" t="n">
+        <v>-0.889519569919749</v>
+      </c>
+      <c r="T64" t="n">
+        <v>-0.8920502174940771</v>
+      </c>
+      <c r="U64" t="n">
+        <v>-0.8947616241797852</v>
+      </c>
+      <c r="V64" t="n">
+        <v>-0.8976116708260456</v>
+      </c>
+      <c r="W64" t="n">
+        <v>-0.9005621895091774</v>
+      </c>
+      <c r="X64" t="n">
+        <v>-0.9035789393396922</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>-0.9066317483884212</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>-0.9096935394603038</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>-0.9127411492410965</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>-0.9157546893412909</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>-0.9187173369364546</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>-0.9216151074395198</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>-0.9244366217866936</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>-0.9271728733133687</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>-0.9298169979595035</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>-0.9322785417690009</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>-0.9346378489442563</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>-0.9369879073976517</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>-0.9392350420874831</v>
+      </c>
+      <c r="AL64" t="n">
+        <v>-0.941380011299174</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>-0.9434245009430957</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>-0.9453709867851323</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>-0.9472225539965227</v>
+      </c>
+      <c r="AP64" t="n">
+        <v>-0.9489828837550988</v>
+      </c>
+      <c r="AQ64" t="n">
+        <v>-0.9507620265517149</v>
+      </c>
+      <c r="AR64" t="n">
+        <v>-0.9523445655055044</v>
+      </c>
+      <c r="AS64" t="n">
+        <v>-0.9538498689887785</v>
+      </c>
+      <c r="AT64" t="n">
+        <v>-0.9552823356140802</v>
+      </c>
+      <c r="AU64" t="n">
+        <v>-0.9566464589995309</v>
+      </c>
+      <c r="AV64" t="n">
+        <v>-0.9580595393981041</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1537,6 +9793,135 @@
       <c r="E65" t="n">
         <v>-0.06437675290328083</v>
       </c>
+      <c r="F65" t="n">
+        <v>-0.0615857744074628</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-0.05897586237274363</v>
+      </c>
+      <c r="H65" t="n">
+        <v>-0.05655548142717343</v>
+      </c>
+      <c r="I65" t="n">
+        <v>-0.05436310033818329</v>
+      </c>
+      <c r="J65" t="n">
+        <v>-0.05242018922645855</v>
+      </c>
+      <c r="K65" t="n">
+        <v>-0.05076453620743837</v>
+      </c>
+      <c r="L65" t="n">
+        <v>-0.04942744031466642</v>
+      </c>
+      <c r="M65" t="n">
+        <v>-0.04841246654723193</v>
+      </c>
+      <c r="N65" t="n">
+        <v>-0.04771902196276018</v>
+      </c>
+      <c r="O65" t="n">
+        <v>-0.0473382947303156</v>
+      </c>
+      <c r="P65" t="n">
+        <v>-0.04725480098002162</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>-0.04744786827377553</v>
+      </c>
+      <c r="R65" t="n">
+        <v>-0.04789320455372813</v>
+      </c>
+      <c r="S65" t="n">
+        <v>-0.04856413486077012</v>
+      </c>
+      <c r="T65" t="n">
+        <v>-0.0494325937999917</v>
+      </c>
+      <c r="U65" t="n">
+        <v>-0.05047011229068314</v>
+      </c>
+      <c r="V65" t="n">
+        <v>-0.05164855520297629</v>
+      </c>
+      <c r="W65" t="n">
+        <v>-0.05294070356052023</v>
+      </c>
+      <c r="X65" t="n">
+        <v>-0.05432069983464828</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>-0.05576451768484336</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>-0.05724969876385769</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>-0.05875606227750234</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>-0.06026555568171382</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>-0.06176226264754879</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>-0.06323237449919505</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>-0.06466412447853442</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>-0.06604769353100495</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>-0.06737509504664652</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>-0.06862320592507459</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>-0.06980001181942834</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>-0.07092529860625851</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>-0.07197800257875805</v>
+      </c>
+      <c r="AL65" t="n">
+        <v>-0.07295752165986756</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>-0.073863960062759</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>-0.07469824274454985</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>-0.07546194503426282</v>
+      </c>
+      <c r="AP65" t="n">
+        <v>-0.07615737452427848</v>
+      </c>
+      <c r="AQ65" t="n">
+        <v>-0.07682205822298496</v>
+      </c>
+      <c r="AR65" t="n">
+        <v>-0.07738758866805762</v>
+      </c>
+      <c r="AS65" t="n">
+        <v>-0.07789439091559669</v>
+      </c>
+      <c r="AT65" t="n">
+        <v>-0.07834589922029192</v>
+      </c>
+      <c r="AU65" t="n">
+        <v>-0.07874578615505583</v>
+      </c>
+      <c r="AV65" t="n">
+        <v>-0.07913808762889993</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1554,6 +9939,135 @@
       <c r="E66" t="n">
         <v>-0.7655867814246288</v>
       </c>
+      <c r="F66" t="n">
+        <v>-0.7647892656844915</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-0.7648784482450626</v>
+      </c>
+      <c r="H66" t="n">
+        <v>-0.7657928968767027</v>
+      </c>
+      <c r="I66" t="n">
+        <v>-0.7675825344124096</v>
+      </c>
+      <c r="J66" t="n">
+        <v>-0.7700073160988403</v>
+      </c>
+      <c r="K66" t="n">
+        <v>-0.7729765633996677</v>
+      </c>
+      <c r="L66" t="n">
+        <v>-0.7763332336671601</v>
+      </c>
+      <c r="M66" t="n">
+        <v>-0.7800874467373649</v>
+      </c>
+      <c r="N66" t="n">
+        <v>-0.7841587789203964</v>
+      </c>
+      <c r="O66" t="n">
+        <v>-0.7884720285080788</v>
+      </c>
+      <c r="P66" t="n">
+        <v>-0.7929580375183909</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>-0.7975541639543848</v>
+      </c>
+      <c r="R66" t="n">
+        <v>-0.8022042829827856</v>
+      </c>
+      <c r="S66" t="n">
+        <v>-0.806858931933525</v>
+      </c>
+      <c r="T66" t="n">
+        <v>-0.8114750863177681</v>
+      </c>
+      <c r="U66" t="n">
+        <v>-0.816015896618312</v>
+      </c>
+      <c r="V66" t="n">
+        <v>-0.8204503530469308</v>
+      </c>
+      <c r="W66" t="n">
+        <v>-0.824752901598906</v>
+      </c>
+      <c r="X66" t="n">
+        <v>-0.828903029640623</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>-0.8328848004138447</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>-0.8366865301358111</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>-0.8403002261464277</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>-0.8437212197234646</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>-0.8469477547271826</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>-0.8499805980711267</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>-0.852822672199736</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>-0.8554787113346023</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>-0.8579549427557522</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>-0.860172504915885</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>-0.8622288756481161</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>-0.8642215146112608</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>-0.8660673548298958</v>
+      </c>
+      <c r="AL66" t="n">
+        <v>-0.8677767632093225</v>
+      </c>
+      <c r="AM66" t="n">
+        <v>-0.8693598887988043</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>-0.8708267969292635</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>-0.8721873311168808</v>
+      </c>
+      <c r="AP66" t="n">
+        <v>-0.8734511360319832</v>
+      </c>
+      <c r="AQ66" t="n">
+        <v>-0.8747137707567247</v>
+      </c>
+      <c r="AR66" t="n">
+        <v>-0.8758049328381872</v>
+      </c>
+      <c r="AS66" t="n">
+        <v>-0.8768267422802629</v>
+      </c>
+      <c r="AT66" t="n">
+        <v>-0.8777867793899831</v>
+      </c>
+      <c r="AU66" t="n">
+        <v>-0.878692193904352</v>
+      </c>
+      <c r="AV66" t="n">
+        <v>-0.879635867694271</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1570,6 +10084,135 @@
       </c>
       <c r="E67" t="n">
         <v>-0.7385934028699901</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-0.7414202622305071</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-0.743859313656497</v>
+      </c>
+      <c r="H67" t="n">
+        <v>-0.7462306293733408</v>
+      </c>
+      <c r="I67" t="n">
+        <v>-0.7488348134421888</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-0.7516266876409793</v>
+      </c>
+      <c r="K67" t="n">
+        <v>-0.7546498414334861</v>
+      </c>
+      <c r="L67" t="n">
+        <v>-0.7578617325233058</v>
+      </c>
+      <c r="M67" t="n">
+        <v>-0.7613273818505236</v>
+      </c>
+      <c r="N67" t="n">
+        <v>-0.7650204223304427</v>
+      </c>
+      <c r="O67" t="n">
+        <v>-0.7689065380227174</v>
+      </c>
+      <c r="P67" t="n">
+        <v>-0.7729472888186251</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>-0.7771031763801891</v>
+      </c>
+      <c r="R67" t="n">
+        <v>-0.7813341162830386</v>
+      </c>
+      <c r="S67" t="n">
+        <v>-0.7856023020774859</v>
+      </c>
+      <c r="T67" t="n">
+        <v>-0.7898723563652773</v>
+      </c>
+      <c r="U67" t="n">
+        <v>-0.7941119499799224</v>
+      </c>
+      <c r="V67" t="n">
+        <v>-0.7982921404358836</v>
+      </c>
+      <c r="W67" t="n">
+        <v>-0.8023875413810765</v>
+      </c>
+      <c r="X67" t="n">
+        <v>-0.8063763640065307</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>-0.8102400214612741</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>-0.8139641497724517</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>-0.8175370973414515</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>-0.8209502484293403</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>-0.8241977667610629</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>-0.8272763313700814</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>-0.8301848671202581</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>-0.8329242759536291</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>-0.8354971737309133</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>-0.8378536512262217</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>-0.8400497601226116</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>-0.8421489615688718</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>-0.8441058267640269</v>
+      </c>
+      <c r="AL67" t="n">
+        <v>-0.8459275008785715</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>-0.8476218495261307</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>-0.8491970703753807</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>-0.8506614909131217</v>
+      </c>
+      <c r="AP67" t="n">
+        <v>-0.8520235305965331</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>-0.8533474405713267</v>
+      </c>
+      <c r="AR67" t="n">
+        <v>-0.8545288741811635</v>
+      </c>
+      <c r="AS67" t="n">
+        <v>-0.8556317129684911</v>
+      </c>
+      <c r="AT67" t="n">
+        <v>-0.8566637016294161</v>
+      </c>
+      <c r="AU67" t="n">
+        <v>-0.8576320849170033</v>
+      </c>
+      <c r="AV67" t="n">
+        <v>-0.8586011696465123</v>
       </c>
     </row>
   </sheetData>

--- a/PLSstatic_predicted_variables_matrix_10.xlsx
+++ b/PLSstatic_predicted_variables_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV67"/>
+  <dimension ref="A1:AU67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -575,9 +575,6 @@
       <c r="AU1" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="AV1" s="1" t="n">
-        <v>47</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -721,9 +718,6 @@
       <c r="AU2" t="n">
         <v>-0.2664049091925764</v>
       </c>
-      <c r="AV2" t="n">
-        <v>-0.2669572117088126</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -867,9 +861,6 @@
       <c r="AU3" t="n">
         <v>0.2333947273399093</v>
       </c>
-      <c r="AV3" t="n">
-        <v>0.2336162647839158</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1013,9 +1004,6 @@
       <c r="AU4" t="n">
         <v>0.2157820027736819</v>
       </c>
-      <c r="AV4" t="n">
-        <v>0.2156955616081731</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1159,9 +1147,6 @@
       <c r="AU5" t="n">
         <v>-0.0853783750140113</v>
       </c>
-      <c r="AV5" t="n">
-        <v>-0.08555625498811439</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1305,9 +1290,6 @@
       <c r="AU6" t="n">
         <v>0.1858636053318919</v>
       </c>
-      <c r="AV6" t="n">
-        <v>0.1861946148869718</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1451,9 +1433,6 @@
       <c r="AU7" t="n">
         <v>-0.432136533220537</v>
       </c>
-      <c r="AV7" t="n">
-        <v>-0.4328792931819074</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1597,9 +1576,6 @@
       <c r="AU8" t="n">
         <v>-0.1550327742932502</v>
       </c>
-      <c r="AV8" t="n">
-        <v>-0.1554804300086286</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1743,9 +1719,6 @@
       <c r="AU9" t="n">
         <v>-0.3559816321836855</v>
       </c>
-      <c r="AV9" t="n">
-        <v>-0.3565507261191759</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1889,9 +1862,6 @@
       <c r="AU10" t="n">
         <v>0.3968167137072965</v>
       </c>
-      <c r="AV10" t="n">
-        <v>0.3971060510689612</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -2035,9 +2005,6 @@
       <c r="AU11" t="n">
         <v>-0.2278649845124013</v>
       </c>
-      <c r="AV11" t="n">
-        <v>-0.228383155890568</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2181,9 +2148,6 @@
       <c r="AU12" t="n">
         <v>-0.1222814470091299</v>
       </c>
-      <c r="AV12" t="n">
-        <v>-0.1223886667098524</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2327,9 +2291,6 @@
       <c r="AU13" t="n">
         <v>-0.0668071931759974</v>
       </c>
-      <c r="AV13" t="n">
-        <v>-0.06689606908653888</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2473,9 +2434,6 @@
       <c r="AU14" t="n">
         <v>0.02348160949814167</v>
       </c>
-      <c r="AV14" t="n">
-        <v>0.02397149639789124</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2619,9 +2577,6 @@
       <c r="AU15" t="n">
         <v>-0.1318946560065015</v>
       </c>
-      <c r="AV15" t="n">
-        <v>-0.1314306739024731</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2765,9 +2720,6 @@
       <c r="AU16" t="n">
         <v>0.2946158206196567</v>
       </c>
-      <c r="AV16" t="n">
-        <v>0.2955018306078374</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2911,9 +2863,6 @@
       <c r="AU17" t="n">
         <v>0.4302212172812311</v>
       </c>
-      <c r="AV17" t="n">
-        <v>0.4315085362610841</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -3057,9 +3006,6 @@
       <c r="AU18" t="n">
         <v>-0.1760764664620036</v>
       </c>
-      <c r="AV18" t="n">
-        <v>-0.1757554900388481</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -3203,9 +3149,6 @@
       <c r="AU19" t="n">
         <v>0.2872854106810412</v>
       </c>
-      <c r="AV19" t="n">
-        <v>0.2878088579973032</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -3349,9 +3292,6 @@
       <c r="AU20" t="n">
         <v>0.1828361863774176</v>
       </c>
-      <c r="AV20" t="n">
-        <v>0.1837268885835644</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -3495,9 +3435,6 @@
       <c r="AU21" t="n">
         <v>0.4937409171788146</v>
       </c>
-      <c r="AV21" t="n">
-        <v>0.4946384422942905</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3641,9 +3578,6 @@
       <c r="AU22" t="n">
         <v>0.2493270580954502</v>
       </c>
-      <c r="AV22" t="n">
-        <v>0.2503335118856654</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3787,9 +3721,6 @@
       <c r="AU23" t="n">
         <v>-0.1917830726149451</v>
       </c>
-      <c r="AV23" t="n">
-        <v>-0.1913226687962038</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3933,9 +3864,6 @@
       <c r="AU24" t="n">
         <v>1.476442493572076</v>
       </c>
-      <c r="AV24" t="n">
-        <v>1.48270476408245</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -4079,9 +4007,6 @@
       <c r="AU25" t="n">
         <v>0.3427843936657878</v>
       </c>
-      <c r="AV25" t="n">
-        <v>0.343539714138275</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -4225,9 +4150,6 @@
       <c r="AU26" t="n">
         <v>0.1546445681472101</v>
       </c>
-      <c r="AV26" t="n">
-        <v>0.1553484754858791</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -4371,9 +4293,6 @@
       <c r="AU27" t="n">
         <v>0.05558228699778642</v>
       </c>
-      <c r="AV27" t="n">
-        <v>0.05628052833571817</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -4517,9 +4436,6 @@
       <c r="AU28" t="n">
         <v>0.8895372211283836</v>
       </c>
-      <c r="AV28" t="n">
-        <v>0.8909958182691017</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -4663,9 +4579,6 @@
       <c r="AU29" t="n">
         <v>1.809154301397865</v>
       </c>
-      <c r="AV29" t="n">
-        <v>1.816440242455455</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -4809,9 +4722,6 @@
       <c r="AU30" t="n">
         <v>0.7092115501273032</v>
       </c>
-      <c r="AV30" t="n">
-        <v>0.710434322171439</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4955,9 +4865,6 @@
       <c r="AU31" t="n">
         <v>-0.438416262447424</v>
       </c>
-      <c r="AV31" t="n">
-        <v>-0.4384716043042633</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -5101,9 +5008,6 @@
       <c r="AU32" t="n">
         <v>0.5903466255782263</v>
       </c>
-      <c r="AV32" t="n">
-        <v>0.5912392840082056</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -5247,9 +5151,6 @@
       <c r="AU33" t="n">
         <v>0.8057577600822067</v>
       </c>
-      <c r="AV33" t="n">
-        <v>0.806705579567665</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -5393,9 +5294,6 @@
       <c r="AU34" t="n">
         <v>-0.8634040891334054</v>
       </c>
-      <c r="AV34" t="n">
-        <v>-0.8640037929682703</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -5539,9 +5437,6 @@
       <c r="AU35" t="n">
         <v>0.8600335943976194</v>
       </c>
-      <c r="AV35" t="n">
-        <v>0.8607088404135939</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -5685,9 +5580,6 @@
       <c r="AU36" t="n">
         <v>0.8275187071650399</v>
       </c>
-      <c r="AV36" t="n">
-        <v>0.8280303897836065</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -5831,9 +5723,6 @@
       <c r="AU37" t="n">
         <v>0.7918685639182035</v>
       </c>
-      <c r="AV37" t="n">
-        <v>0.7923485157103594</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -5977,9 +5866,6 @@
       <c r="AU38" t="n">
         <v>0.6867153415388186</v>
       </c>
-      <c r="AV38" t="n">
-        <v>0.6874328229093186</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -6123,9 +6009,6 @@
       <c r="AU39" t="n">
         <v>0.6379939558889395</v>
       </c>
-      <c r="AV39" t="n">
-        <v>0.6383425208388949</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -6269,9 +6152,6 @@
       <c r="AU40" t="n">
         <v>0.8207385937302887</v>
       </c>
-      <c r="AV40" t="n">
-        <v>0.8213545690417612</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -6415,9 +6295,6 @@
       <c r="AU41" t="n">
         <v>0.6053550193337032</v>
       </c>
-      <c r="AV41" t="n">
-        <v>0.6058905785604792</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -6561,9 +6438,6 @@
       <c r="AU42" t="n">
         <v>0.6775267705860943</v>
       </c>
-      <c r="AV42" t="n">
-        <v>0.6780110984686563</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -6707,9 +6581,6 @@
       <c r="AU43" t="n">
         <v>0.7167262434120668</v>
       </c>
-      <c r="AV43" t="n">
-        <v>0.7173544242910522</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -6853,9 +6724,6 @@
       <c r="AU44" t="n">
         <v>0.7437911943008527</v>
       </c>
-      <c r="AV44" t="n">
-        <v>0.744247277715257</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -6999,9 +6867,6 @@
       <c r="AU45" t="n">
         <v>0.7611744932435441</v>
       </c>
-      <c r="AV45" t="n">
-        <v>0.7613716185078593</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -7145,9 +7010,6 @@
       <c r="AU46" t="n">
         <v>-1.405717384004545</v>
       </c>
-      <c r="AV46" t="n">
-        <v>-1.407592012879853</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -7291,9 +7153,6 @@
       <c r="AU47" t="n">
         <v>-1.096120934153279</v>
       </c>
-      <c r="AV47" t="n">
-        <v>-1.097616963580631</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -7437,9 +7296,6 @@
       <c r="AU48" t="n">
         <v>-0.9536832404136056</v>
       </c>
-      <c r="AV48" t="n">
-        <v>-0.9551913995245841</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -7583,9 +7439,6 @@
       <c r="AU49" t="n">
         <v>-0.7032730117347001</v>
       </c>
-      <c r="AV49" t="n">
-        <v>-0.7044425278388692</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -7729,9 +7582,6 @@
       <c r="AU50" t="n">
         <v>-0.09532942275913298</v>
       </c>
-      <c r="AV50" t="n">
-        <v>-0.09568439772594978</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -7875,9 +7725,6 @@
       <c r="AU51" t="n">
         <v>-0.9239995674891593</v>
       </c>
-      <c r="AV51" t="n">
-        <v>-0.9254532640617332</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -8021,9 +7868,6 @@
       <c r="AU52" t="n">
         <v>-0.9239995674891593</v>
       </c>
-      <c r="AV52" t="n">
-        <v>-0.9254532640617332</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -8167,9 +8011,6 @@
       <c r="AU53" t="n">
         <v>-1.237999424805457</v>
       </c>
-      <c r="AV53" t="n">
-        <v>-1.239804836907865</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -8313,9 +8154,6 @@
       <c r="AU54" t="n">
         <v>-0.2125535543347055</v>
       </c>
-      <c r="AV54" t="n">
-        <v>-0.2131612666388845</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -8459,9 +8297,6 @@
       <c r="AU55" t="n">
         <v>-1.122237281114393</v>
       </c>
-      <c r="AV55" t="n">
-        <v>-1.123765139572221</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -8605,9 +8440,6 @@
       <c r="AU56" t="n">
         <v>-0.9835528976610982</v>
       </c>
-      <c r="AV56" t="n">
-        <v>-0.9848397272425269</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -8751,9 +8583,6 @@
       <c r="AU57" t="n">
         <v>-1.060782994767551</v>
       </c>
-      <c r="AV57" t="n">
-        <v>-1.06203423729035</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -8897,9 +8726,6 @@
       <c r="AU58" t="n">
         <v>-1.204573600307409</v>
       </c>
-      <c r="AV58" t="n">
-        <v>-1.205990551476093</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -9043,9 +8869,6 @@
       <c r="AU59" t="n">
         <v>-0.8748482554569655</v>
       </c>
-      <c r="AV59" t="n">
-        <v>-0.8761755170413239</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -9189,9 +9012,6 @@
       <c r="AU60" t="n">
         <v>-0.4925178984321529</v>
       </c>
-      <c r="AV60" t="n">
-        <v>-0.4932609611824348</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -9335,9 +9155,6 @@
       <c r="AU61" t="n">
         <v>0.385999306764907</v>
       </c>
-      <c r="AV61" t="n">
-        <v>0.3862285826326497</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -9481,9 +9298,6 @@
       <c r="AU62" t="n">
         <v>-1.343236833813042</v>
       </c>
-      <c r="AV62" t="n">
-        <v>-1.344723960547278</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -9627,9 +9441,6 @@
       <c r="AU63" t="n">
         <v>-0.62105521538581</v>
       </c>
-      <c r="AV63" t="n">
-        <v>-0.6222518278545868</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -9773,9 +9584,6 @@
       <c r="AU64" t="n">
         <v>-0.9566464589995309</v>
       </c>
-      <c r="AV64" t="n">
-        <v>-0.9580595393981041</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -9919,9 +9727,6 @@
       <c r="AU65" t="n">
         <v>-0.07874578615505583</v>
       </c>
-      <c r="AV65" t="n">
-        <v>-0.07913808762889993</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -10065,9 +9870,6 @@
       <c r="AU66" t="n">
         <v>-0.878692193904352</v>
       </c>
-      <c r="AV66" t="n">
-        <v>-0.879635867694271</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -10210,9 +10012,6 @@
       </c>
       <c r="AU67" t="n">
         <v>-0.8576320849170033</v>
-      </c>
-      <c r="AV67" t="n">
-        <v>-0.8586011696465123</v>
       </c>
     </row>
   </sheetData>
